--- a/code/results_mistral_with_tegrastats.xlsx
+++ b/code/results_mistral_with_tegrastats.xlsx
@@ -486,36 +486,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>In what country is Normandy located?</t>
+          <t>where did mexico win its independence from spain</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>France</t>
+          <t xml:space="preserve"> On September 27 , 1821 the Army of the Three Guarantees entered Mexico City , and the following day Iturbide proclaimed the independence of the Mexican Empire , as New Spain was henceforth to be called . The Treaty of Córdoba was not ratified by the Spanish Cortes . Iturbide included a special clause in the treaty that left open the possibility for a criollo monarch to be appointed by a Mexican congress if no suitable member of the European royalty would accept the Mexican crown . Half of the new government employees appointed were Iturbide 's followers . </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Normandy is a region in France, located on the north coast of the country. It's famous for its beaches, historic sites like Mont Saint-Michel and the D-Day landing beaches, and cultural landmarks such as Bayeux Tapestry.</t>
+          <t xml:space="preserve"> Mexico won its independence from Spain on September 27, 1821. The independence movement began in 1810 when Miguel Hidalgo y Costilla led the famous "Grito de Dolores" (Cry of Dolores) in the town of Dolores Hidalgo, Guanajuato. This sparked a series of uprisings across Mexico against Spanish rule. After several years of fighting and numerous leaders, among them José María Morelos y Pavón and Agustín de Iturbide, Mexico was finally able to negotiate its independence with Spain in 1821. The agreement, known as the Plan de Iguala, established a federal republic based on the principles of religion, unity, and independence.</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="H2" t="n">
-        <v>19.21904826164246</v>
+        <v>31.13524556159973</v>
       </c>
       <c r="I2" t="n">
-        <v>5.95</v>
+        <v>8.956250000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="3">
@@ -524,36 +524,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>What is Southern California often abbreviated as?</t>
+          <t>number of rooms in venetian hotel las vegas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SoCal</t>
+          <t xml:space="preserve"> The Venetian resort complex is ( together with the adjacent Sands Expo Convention Center and The Palazzo Hotel and Casino Resort ) the world 's second - largest hotel , with 4,049 rooms , 3,068 suites ranging in price from $169 to $10,000 per night and a 120,000 - square - foot ( 11,000 m ) casino . Since its opening , The Venetian Macao is now the largest casino in the world , beating The Venetian , Las Vegas . </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Southern California, or the region encompassing Los Angeles and surrounding areas, is commonly referred to as SoCal. This term is used in both formal and informal contexts.</t>
+          <t>4951 rooms (as of 2021) according to the Venetian Hotel's website.</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="H3" t="n">
-        <v>5.235507249832153</v>
+        <v>5.060791015625</v>
       </c>
       <c r="I3" t="n">
-        <v>12.031</v>
+        <v>14.78366666666667</v>
       </c>
       <c r="J3" t="n">
-        <v>74.25</v>
+        <v>92.66666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -562,36 +562,43 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Which name is also used to describe the Amazon rainforest in English?</t>
+          <t>how many times has miranda lambert won cma female vocalist of the year</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>also known in English as Amazonia or the Amazon Jungle</t>
+          <t xml:space="preserve">   Year   Award   Nomination   Result     2007   Top New Female Vocalist   Miranda Lambert   Won     Female Vocalist of the Year   Nominated     2008   Top Female Vocalist   Nominated     Album of the Year   Crazy Ex-Girlfriend   Won     Single Record of the Year   `` Famous in a Small Town ''   Nominated     2009   Top Female Vocalist   Miranda Lambert   Nominated     Single Record of the Year   `` Gunpowder &amp; Lead ''   Nominated       Top Female Vocalist of the Year   Miranda Lambert   Won     Album of the Year   Revolution   Won     Single Record of the Year   `` White Liar ''   Nominated     Song of the Year   Nominated     Video of the Year   Won     2011   Entertainer of the Year   Miranda Lambert   Nominated     Top Female Vocalist of the Year   Won     Single Record of the Year   `` The House That Built Me ''   Won     Song of the Year   Won     Video of the Year   Won     `` Only Prettier ''   Nominated     2012   Female Vocalist of the Year   Miranda Lambert   Won     Album of the Year   Four the Record   Won     2013   Female Vocalist of the Year   Miranda Lambert   Won     Entertainer of the Year   Nominated     Single of the Year   `` Over You ''   Won     Song of the Year   `` Over You '' ( performer )   Won     `` Over You '' ( writer )   Won     2014   Entertainer of the Year   Miranda Lambert   Nominated     Female Vocalist of the Year   Won     Single of the Year   `` Mama 's Broken Heart ''   Won     Song of the Year   Nominated     Video of the Year   Nominated     Vocal Event of the Year   `` We Were Us '' with Keith Urban   Won     `` Boys ' Round Here '' with Blake Shelton and Pistol Annies   Nominated     2015   Entertainer of the Year   Miranda Lambert   Nominated     Female Vocalist of the Year   Won     Album of the Year   Platinum   Won     Single of the Year   `` Automatic ''   Nominated     Song of the Year   Won     Video of the Year   `` Somethin ' Bad '' with Carrie Underwood   Nominated     Vocal Event of the Year   Nominated     2016   Female Vocalist of the Year   Miranda Lambert   Won     Entertainer of the Year   Nominated     Vocal Event of the Year   `` Smokin ' and Drinkin ' '' with Little Big Town   Won     2017   Female Vocalist of the Year   Miranda Lambert   Won     Album of the Year   The Weight of These Wings   Won     Single Record of the Year   `` Vice ''   Nominated     Song of the Year   Nominated     Video of the Year   Nominated   </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Amazon rainforest can also be referred to as "Amazonian Rainforest" or simply "Amazonia". In Portuguese, it's known as "Floresta Amazônica" or "Amazônia". These terms are often used interchangeably depending on the context and language.</t>
+          <t xml:space="preserve"> Miranda Lambert has won the CMA Female Vocalist of the Year award a total of 6 times. Here is a list of her wins:
+1. 2007 (her first win, at age 24)
+2. 2008
+3. 2010
+4. 2011
+5. 2014
+6. 2016
+She is the second artist to win this award 6 times after Reba McEntire, who won it 7 times.</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="n">
-        <v>10</v>
+        <v>382</v>
       </c>
       <c r="H4" t="n">
-        <v>8.120243072509766</v>
+        <v>16.49155902862549</v>
       </c>
       <c r="I4" t="n">
-        <v>12.07928571428571</v>
+        <v>14.87753846153846</v>
       </c>
       <c r="J4" t="n">
-        <v>82.14285714285714</v>
+        <v>97.46153846153847</v>
       </c>
     </row>
     <row r="5">
@@ -600,36 +607,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>An igneous rock is a rock that crystallizes from what?</t>
+          <t>where did the duffer brothers go to school</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>rock crystallizes from melt (magma and/or lava)</t>
+          <t xml:space="preserve"> The Duffer brothers were born and raised in Durham , North Carolina . They began making films in the third grade using a Hi8 video camera that was a gift from their parents . They attended the Duke School for Children from grades K - 8 , a private suburban school , and then matriculated to the Charles E. Jordan High School , a large Durham public school . They relocated to Orange , California to study film at Chapman University 's Dodge College of Film and Media Arts , where they graduated in 2007 . After writing and / or directing a number of short films , their script for the post-apocalyptic horror film , Hidden , was acquired by Warner Bros. Pictures in 2011 . The brothers directed the film in 2012 , which was released in 2015 . Director M. Night Shyamalan read the script and hired them as writer / producers on the Fox television series Wayward Pines . </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Maggie, an igneous rock is a type of rock that solidifies from molten material within or below the Earth's crust. This molten material, known as magma or lava, cools and solidifies over time, forming crystals, which then form igneous rocks. The texture, mineral composition, and color of an igneous rock can provide clues about the conditions under which it formed and its geologic history.</t>
+          <t xml:space="preserve"> The Duffer Brothers, Matt and Ross Duffer, attended the University of Texas at Austin. They studied telecommunications and radio-television-film (RTF) as undergraduates, and they later returned to complete their Master's degrees in the same department. Their alma mater is known for its strong film program, which may have played a role in honing their skills as creators of Stranger Things.</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>163</v>
       </c>
       <c r="H5" t="n">
-        <v>11.56008386611938</v>
+        <v>12.52531147003174</v>
       </c>
       <c r="I5" t="n">
-        <v>12.4748</v>
+        <v>14.8663</v>
       </c>
       <c r="J5" t="n">
-        <v>87.09999999999999</v>
+        <v>94.40000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -638,36 +645,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>What is the largest city the Rhine runs through?</t>
+          <t>main character in to kill a mockingbird book</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cologne, Germany</t>
+          <t xml:space="preserve"> The story takes place during three years ( 1933 -- 35 ) of the Great Depression in the fictional `` tired old town '' of Maycomb , Alabama , the seat of Maycomb County . It focuses on six - year - old Jean Louise Finch ( nicknamed Scout ) , who lives with her older brother , Jeremy ( nicknamed Jem ) , and their widowed father , Atticus , a middle - aged lawyer . Jem and Scout befriend a boy named Dill , who visits Maycomb to stay with his aunt each summer . The three children are terrified yet fascinated by their neighbor , the reclusive Arthur `` Boo '' Radley . The adults of Maycomb are hesitant to talk about Boo , and few of them have seen him for many years . The children feed one another 's imagination with rumors about his appearance and reasons for remaining hidden , and they fantasize about how to get him out of his house . After two summers of friendship with Dill , Scout and Jem find that someone leaves them small gifts in a tree outside the Radley place . Several times the mysterious Boo makes gestures of affection to the children , but , to their disappointment , he never appears in person . </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The largest city that the Rhine River flows through is Cologne (Köln in German), located in North Rhine-Westphalia, Germany. It has a population of approximately 1 million people. The Rhine also flows through other significant cities such as Strasbourg and Basel in France and Switzerland respectively, as well as Düsseldorf, Bonn, Mainz, and Frankfurt am Main in Germany.</t>
+          <t xml:space="preserve"> The main character in To Kill a Mockingbird by Harper Lee is Scout Finch, a young girl growing up in the small town of Maycomb, Alabama during the Great Depression. She is the daughter of Atticus Finch, a lawyer who defends Tom Robinson, a Black man falsely accused of raping a white woman. Through her eyes, we witness the racial prejudice and injustice that existed in the American South at the time, as well as the moral growth and development of both Scout and her father. The novel is told from Scout's perspective and she is the central character throughout the story.</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="F6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>220</v>
       </c>
       <c r="H6" t="n">
-        <v>10.88532996177673</v>
+        <v>17.79807257652283</v>
       </c>
       <c r="I6" t="n">
-        <v>12.86011111111111</v>
+        <v>14.87286666666666</v>
       </c>
       <c r="J6" t="n">
-        <v>86.66666666666667</v>
+        <v>92.53333333333333</v>
       </c>
     </row>
     <row r="7">
@@ -676,37 +683,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Along with geothermal and nuclear, what is a notable non-combustion heat source?</t>
+          <t>when does the show the good doctor premier</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>solar power</t>
+          <t xml:space="preserve"> The Good Doctor is an American medical - drama television series , developed by David Shore , based on the 2013 South Korean series of the same name . The show is produced by Sony Pictures Television and ABC Studios , with Shore serving as showrunner . The series began airing on ABC on September 25 , 2017 . </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Solar energy is another notable non-combustion heat source. Solar power harnesses the energy from the sun through various technologies like solar panels (photovoltaic), concentrated solar power systems, and solar water heating. These technologies convert sunlight directly into electricity or thermal energy that can be used for heating purposes.
-Unlike fossil fuels or geothermal resources, solar energy is abundant, renewable, and clean, making it a crucial component in the transition towards sustainable energy production.</t>
+          <t xml:space="preserve"> The American television series "The Good Doctor" premiered on ABC on September 25, 2017. It is a medical drama based on a South Korean series of the same name, and it tells the story of Dr. Shaun Murphy, a young autistic surgeon with savant syndrome, as he navigates his personal life and career at San Jose St. Bonaventure Hospital. The show has since aired multiple seasons and continues to air new episodes on ABC.</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F7" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="H7" t="n">
-        <v>12.70862436294556</v>
+        <v>14.0742084980011</v>
       </c>
       <c r="I7" t="n">
-        <v>12.55463636363636</v>
+        <v>14.85872727272727</v>
       </c>
       <c r="J7" t="n">
-        <v>83.09090909090909</v>
+        <v>95.18181818181819</v>
       </c>
     </row>
     <row r="8">
@@ -715,38 +721,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>What theorem defines the main role of primes in number theory?</t>
+          <t>what type of reaction leads to the production of polymers</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>The fundamental theorem of arithmetic</t>
+          <t xml:space="preserve"> The condensation reaction is used to synthetically produce nylon polymers in industry . Nylons must specifically include an straight chain ( aliphatic ) monomer . The amide link is produced from an amine group ( alternatively known as an amino group ) , and a carboxylic acid group . The hydroxyl from the carboxylic acid combines with a hydrogen from the amine , and gives rise to water , the elimination byproduct that is the namesake of the reaction . </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Prime Number Theorem, one of the most celebrated results in number theory, describes the distribution of prime numbers among the positive integers. It states that the probability that a randomly selected integer n is prime is inversely proportional to its logarithm, and the constant in the proportion can be explicitly stated. Specifically, if P(x) denotes the prime counting function (the number of primes less than or equal to x), then the Prime Number Theorem asserts that:
-    lim (x-&gt;infinity) [P(x) * log(x)] = x
-This theorem provides important insights into the distribution and behavior of prime numbers, connecting arithmetic functions like the summatory function Σ(f(n)) and their analytic counterparts in complex analysis. The Prime Number Theorem was first proposed by Gauss and later independently proved by Hadamard and de la Vallée Poussin in the late 19th century.</t>
+          <t xml:space="preserve"> The type of reaction that leads to the production of polymers is Polymerization. Polymerization is a process where simple molecules called monomers combine together in a repeating fashion, forming long chains or three-dimensional networks of large molecules (polymers). This process can occur through two main types:
+1. Addition polymerization: In this type of polymerization, monomers with carbon-carbon unsaturation (usually a carbon-carbon double bond) react to form covalent bonds between the repeating units. The polymer chain grows continuously as more monomer units are added to the growing chain. Examples include polyethylene and polystyrene.
+2. Condensation polymerization: In this type, two functional groups in each monomer react with one another, releasing a small molecule (usually a water molecule) as a byproduct. The polymer chain grows step-by-step, with each addition of a new repeating unit resulting from the reaction between a growing chain and a new monomer unit. Examples include nylon, cellulose, and proteins.
+Both types of polymerization can be carried out in different ways (e.g., bulk, solution, emulsion, suspension, and precipitation polymerizations), depending on the specific requirements of the process and the desired properties of the resulting polymer.</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>137</v>
+        <v>186</v>
       </c>
       <c r="F8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="H8" t="n">
-        <v>23.06597280502319</v>
+        <v>39.67103433609009</v>
       </c>
       <c r="I8" t="n">
-        <v>13.07995</v>
+        <v>14.88561764705882</v>
       </c>
       <c r="J8" t="n">
-        <v>94.05</v>
+        <v>96.82352941176471</v>
       </c>
     </row>
     <row r="9">
@@ -755,36 +762,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>What kind of university is the University of Chicago?</t>
+          <t>when did the one game wild card start</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>a private research university</t>
+          <t xml:space="preserve"> From 1969 through 1993 , division leaders in each league advanced to the League Championship Series , with the winners of each LCS meeting in the World Series . However , an expanding number of teams over the years made making the playoffs increasingly difficult . The new system was instituted in 1994 ( but first used in 1995 because a players strike canceled the 1994 playoffs ) when Major League Baseball expanded from two to three divisions per league . In the new three - division leagues , each league had four teams in the playoffs . In addition to the three division winners , a wild - card team made the playoffs as the fourth seed . This was the team with the most wins amongst non-division winners . The wild - card matchup was played in the first round between the League leader in wins and the wild - card team , unless both teams were in the same division , which resulted in the wild card facing the second - best division winner in the league . </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The University of Chicago is a private research university located in Chicago, Illinois. It was founded in 1890 by John D. Rockefeller and William Rainey Harper. The university is known for its strong focus on academic freedom, interdisciplinary studies, and rigorous intellectual engagement. It offers undergraduate and graduate programs in a wide range of disciplines, including the humanities, social sciences, natural sciences, mathematics, business, and law. The University of Chicago is consistently ranked among the top universities in the world.</t>
+          <t xml:space="preserve"> The one-game Wild Card playoff in Major League Baseball (MLB) started with the 1994 postseason, although it was originally intended to begin in the 1993 postseason. The change came due to a players' strike that shortened the 1994 season and affected the playoffs format.
+Prior to 1994, teams with the best records in each league (American League and National League) were directly seeded for the Division Series without any Wild Card game. The introduction of the one-game Wild Card playoff expanded the playoffs by adding a single game between two wild card teams from both leagues.
+The first ever one-game Wild Card playoff took place on October 3, 1994, between the American League's Cleveland Indians and the Boston Red Sox at Fenway Park in Boston. The Indians won the game 10–5 and advanced to face the New York Yankees in the Division Series. However, due to the players' strike, the rest of the postseason was ultimately cancelled that year.
+The first one-game Wild Card playoff to be played after the resolution of the players' strike took place on October 1, 2012, between the National League's St. Louis Cardinals and the Atlanta Braves at Turner Field in Atlanta. The Cardinals won the game 6–3 and advanced to face the Washington Nationals in the Division Series.</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>80</v>
+        <v>214</v>
       </c>
       <c r="F9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>181</v>
       </c>
       <c r="H9" t="n">
-        <v>13.34966516494751</v>
+        <v>41.70132088661194</v>
       </c>
       <c r="I9" t="n">
-        <v>12.61025</v>
+        <v>14.87652777777777</v>
       </c>
       <c r="J9" t="n">
-        <v>88.83333333333333</v>
+        <v>95.25</v>
       </c>
     </row>
     <row r="10">
@@ -793,36 +803,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>What is the second most abundant element?</t>
+          <t>how many episode are there in season 4 of the originals</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>helium</t>
+          <t xml:space="preserve"> The Originals , a one - hour American supernatural drama , was renewed for a fourth season by The CW on March 17 , 2016 , by The CW 's President , Mark Pedowitz . The 2016 -- 17 United States television season debut of The Originals was pushed to midseason , which saw the fourth season premiere on March 17 , 2017 . It concluded on June 23 , 2017 , after 13 episodes . </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The second most abundant element in the Earth's crust, after oxygen, is silicon. Silicon is a chemical element with symbol Si and atomic number 14. It belongs to group 14 (IVa) of the periodic table and is a tetravalent metalloid. Silicon is most widely distributed in orthosilicate minerals such as quartz (SiO2), sand, and flint. It is an essential component of many foods, beverages, and dietary supplements, used as a source of silicon for strengthening the connective tissue in joints, cartilage, tendons, ligaments, and bones.</t>
+          <t xml:space="preserve"> The fourth season of "The Originals" has 13 episodes. Each episode typically runs for approximately 42-45 minutes, although this can vary slightly depending on the specific content and breaks within each episode.</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="F10" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="H10" t="n">
-        <v>16.39751935005188</v>
+        <v>7.067241668701172</v>
       </c>
       <c r="I10" t="n">
-        <v>13.10378571428571</v>
+        <v>14.8622</v>
       </c>
       <c r="J10" t="n">
-        <v>87.71428571428571</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11">
@@ -831,36 +841,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>What popular term is another commonly used way of saying the Amazon?</t>
+          <t>what was the name of shakespeares acting company</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Amazonia or the Amazon Jungle</t>
+          <t xml:space="preserve"> The Globe Theatre was a theatre in London associated with William Shakespeare . It was built in 1599 by Shakespeare 's playing company , the Lord Chamberlain 's Men , on land owned by Thomas Brend and inherited by his son , Nicholas Brend and grandson Sir Matthew Brend , and was destroyed by fire on 29 June 1613 . A second Globe Theatre was built on the same site by June 1614 and closed by an Ordinance issued on 6 September 1642 . </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The River of Life, The Lungs of the Planet, or simply "The Amazon Rainforest" are all poetic ways to refer to the Amazon. However, a popular and widely-used common name for the Amazon River itself is the "Amazonas". In Portuguese, it's known as "Rio Amazonas", in Spanish as "Río Amazonas", and in French as "Rive Amazone". These language-specific terms translate directly to "Amazon River" in English.</t>
+          <t xml:space="preserve"> Shakespeare's acting company was known as the "King's Men" or the "Lord Chamberlain's Men." Initially, it was called the "Lord Chamberlain's Men" when it was established around 1594, during the reign of Elizabeth I. The name changed to "King's Men" after James I took over the throne in 1603. Shakespeare was one of its most famous and prominent members.</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F11" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="H11" t="n">
-        <v>12.52971386909485</v>
+        <v>13.6654942035675</v>
       </c>
       <c r="I11" t="n">
-        <v>12.68490909090909</v>
+        <v>14.88745454545454</v>
       </c>
       <c r="J11" t="n">
-        <v>87.18181818181819</v>
+        <v>93.63636363636364</v>
       </c>
     </row>
     <row r="12">
@@ -869,37 +879,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>What is the worlds largest academic and private library system?</t>
+          <t>how old was firmin labot when he won the tour de france in 1922</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Harvard Library</t>
+          <t xml:space="preserve"> In the 1920 and 1921 Lambot placed respectably and in 1922 he won for the second time after Hector Heusghem was handed an hour penalty for swapping his bicycle after breaking the frame . He became the first to win the Tour without winning a stage . Lambot was 36 when he won the 1922 Tour , the oldest winner of one of the big cycling tours ( i.e. the tours of France , Spain and Italy ) at that time . He kept the record for over 90 years , until it was broken by 41 - year - old Vuelta winner Chris Horner in 2013 . He remains the oldest Tour winner to date . </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The world's largest academic and private library system is the Library of Congress, located in Washington D.C., United States. It contains more than 170 million items and is the de facto national library of the United States and the research arm of the U.S. Congress.
-However, if we consider only private libraries, then the Guinness World Records recognizes The Library of Alexandria in Egypt as the largest private library to have ever existed. It was one of the most significant libraries of the ancient world and is a source of inspiration for modern libraries.</t>
+          <t xml:space="preserve"> Firmin Lambot did not win the Tour de France in 1922. The winner of the 1922 Tour de France was Nicolas Frantz from Luxembourg. Firmin Lambot, a Belgian cyclist, won the Tour de France once in 1922, but that victory was in 1919.</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="H12" t="n">
-        <v>14.06694197654724</v>
+        <v>11.15938329696655</v>
       </c>
       <c r="I12" t="n">
-        <v>12.964</v>
+        <v>14.87555555555556</v>
       </c>
       <c r="J12" t="n">
-        <v>89.41666666666667</v>
+        <v>92.11111111111111</v>
       </c>
     </row>
     <row r="13">
@@ -908,36 +917,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Which Florida city has the biggest population?</t>
+          <t>when was the first pink panther movie made</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Jacksonville</t>
+          <t xml:space="preserve"> The Pink Panther is a British - American media franchise primarily focusing on a series of comedy - mystery films featuring an inept French police detective , Inspector Jacques Clouseau . The franchise began with the release of the classic Pink Panther film in 1963 . The role of Clouseau was originated by and is most closely associated with Peter Sellers . Most of the films were written and directed by Blake Edwards , with theme music composed by Henry Mancini . Elements and characters inspired by the films were adapted into other media , including books , comic books and animated series . </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The city with the largest population in Florida is Jacksonville. As of 2021, its estimated population is around 953,000 residents. This makes it the most populous city in Florida and the 14th most populous city in the United States. However, it's important to note that the Miami metropolitan area (which includes Miami, Miami Beach, and other surrounding cities) has a larger population than Jacksonville when considering the entire urban area.</t>
+          <t xml:space="preserve"> The first Pink Panther film was released on December 9, 1963. Titled "The Pink Panther," it was a British-American crime comedy film directed by Blake Edwards and produced by Saul Chaplin. It introduced the character of Inspector Jacques Clouseau, played by Peter Sellers, as well as the iconic animated opening sequence featuring the Pink Panther character designed by famed animator Friz Freleng. The movie was a massive success and launched a series of eight subsequent films featuring the character Inspector Clouseau, the most notable being "A Shot in the Dark" (1964) and "The Return of the Pink Panther" (1975).</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="F13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="H13" t="n">
-        <v>12.16283488273621</v>
+        <v>20.49135398864746</v>
       </c>
       <c r="I13" t="n">
-        <v>12.61918181818182</v>
+        <v>14.8855294117647</v>
       </c>
       <c r="J13" t="n">
-        <v>78.63636363636364</v>
+        <v>94.94117647058823</v>
       </c>
     </row>
     <row r="14">
@@ -946,36 +955,42 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>What percentage of global assets does the richest 1% of people have?</t>
+          <t>where does the publisher clearing house money come from</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>40%</t>
+          <t xml:space="preserve"> PCH is a direct - marketing company that sells merchandise , magazine subscriptions and operates several prize - based websites . While best known for the sweepstakes and Prize Patrol it uses to promote its magazine subscriptions , the majority of the company 's revenue now comes from merchandise . The company has been selling books , media , jewelry and other consumer items since the 1980s . PCH operates eight websites , including PCH Search and Win , PCH Lotto , PCH Games , PCH Save and Win , and Candystand . </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The exact percentage can vary slightly depending on the source and the specific year, but according to a report by Oxfam in 2020, the world's billionaires own more wealth than the bottom 4.6 billion people combined. If we interpret this as the richest 1% having more wealth than the remaining 99%, that would be approximately 32.3%. However, it's important to note that these numbers are subject to change and may not reflect the exact distribution in any given year.</t>
+          <t xml:space="preserve"> Publisher's Clearing House (PCH) is a marketing, merchandising, and sweepstakes company. They generate revenue through various means, including:
+1. Sales of products and services: PCH offers various goods for purchase through its catalog and online store, such as home and garden items, electronics, and household essentials. A portion of the sales goes towards funding their operations, including the prize money for sweepstakes.
+2. Sweepstakes entries: PCH earns revenue from people who purchase a chance to enter their sweepstakes. The more entries purchased, the higher the chances of winning a prize.
+3. Advertising and sponsorships: PCH partners with various companies to advertise their products or services within their marketing materials, on-air promotions, and online content.
+4. Licensing: PCH may license its brand and intellectual property for use by third parties, such as in games, apps, or other merchandise.
+5. Donations and philanthropy: PCH occasionally sets aside funds for charitable causes, which may be supported through donations from participants or sponsors. However, the majority of these funds are typically allocated towards prize money and operational costs.
+In summary, Publisher's Clearing House generates revenue from a combination of product sales, sweepstakes entries, advertising, licensing agreements, and philanthropy. The revenue generated is used to fund their operations, prizes, and promotions.</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="F14" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="H14" t="n">
-        <v>13.12729930877686</v>
+        <v>42.48985171318054</v>
       </c>
       <c r="I14" t="n">
-        <v>13.07618181818182</v>
+        <v>14.88256756756756</v>
       </c>
       <c r="J14" t="n">
-        <v>86</v>
+        <v>95.16216216216216</v>
       </c>
     </row>
     <row r="15">
@@ -984,36 +999,44 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Where was France's Huguenot population largely centered?</t>
+          <t>how many pages are in the harry potter series</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>the southern and central parts of France</t>
+          <t xml:space="preserve"> Jenny Sawyer wrote in Christian Science Monitor on 25 July 2007 that the books represent a `` disturbing trend in commercial storytelling and Western society '' in that stories `` moral center ( sic ) have all but vanished from much of today 's pop culture ... after 10 years , 4,195 pages , and over 375 million copies , J.K. Rowling 's towering achievement lacks the cornerstone of almost all great children 's literature : the hero 's moral journey '' . Harry Potter , Sawyer argues , neither faces a `` moral struggle '' nor undergoes any ethical growth , and is thus `` no guide in circumstances in which right and wrong are anything less than black and white '' . In contrast Emily Griesinger described Harry 's first passage through to Platform 93⁄4 as an application of faith and hope , and his encounter with the Sorting Hat as the first of many in which Harry is shaped by the choices he makes . She also noted the `` deeper magic '' by which the self - sacrifice of Harry 's mother protects the boy throughout the series , and which the power - hungry Voldemort fails to understand . </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Huguenots, who were French Protestants in the Late Middle Ages and Early Modern Period, were primarily concentrated in several regions of France. One of the most significant areas was along the south-eastern coast, particularly in cities like Nîmes, Montpellier, Orange, and Toulon. Other important centers included Rouen and Dieppe in Normandy, La Rochelle in Poitou-Charentes, and parts of Languedoc-Roussillon, Guyenne, and Burgundy. These regions were traditionally Catholic strongholds where the Reformation gained significant support due to factors like economic prosperity, urbanization, and intellectual openness. The Huguenots also had a significant presence in Paris, which made their religious activities more visible and sometimes led to conflict with the Catholic authorities.</t>
+          <t xml:space="preserve"> The Harry Potter series by J.K. Rowling consists of seven books:
+1. Harry Potter and the Philosopher's Stone (309 pages)
+2. Harry Potter and the Chamber of Secrets (223 pages)
+3. Harry Potter and the Prisoner of Azkaban (223 pages)
+4. Harry Potter and the Goblet of Fire (526 pages)
+5. Harry Potter and the Order of the Phoenix (624 pages)
+6. Harry Potter and the Half-Blood Prince (538 pages)
+7. Harry Potter and the Deathly Hallows (759 pages)
+In total, there are 3144 pages in the Harry Potter series.</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="F15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G15" t="n">
-        <v>7</v>
+        <v>204</v>
       </c>
       <c r="H15" t="n">
-        <v>19.98191356658936</v>
+        <v>23.13686418533325</v>
       </c>
       <c r="I15" t="n">
-        <v>12.80316666666666</v>
+        <v>14.864</v>
       </c>
       <c r="J15" t="n">
-        <v>89.11111111111111</v>
+        <v>95.57894736842105</v>
       </c>
     </row>
     <row r="16">
@@ -1022,38 +1045,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>What is a ctenophora?</t>
+          <t>where is the lava stored in a volcano</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>phylum of animals that live in marine waters</t>
+          <t xml:space="preserve"> A magma chamber is a large pool of liquid rock beneath the surface of the Earth . The molten rock , or magma , in such a chamber is under great pressure , and , given enough time , that pressure can gradually fracture the rock around it , creating a way for the magma to move upward . If it finds its way to the surface , then the result will be a volcanic eruption ; consequently , many volcanoes are situated over magma chambers . These chambers are hard to detect deep within the Earth , and therefore most of those known are close to the surface , commonly between 1 km and 10 km down . </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ctenophora, also known as Comb jellies or Sea walnuts, are a phylum of aquatic invertebrates. They are characterized by their unique eight rows of cilia that run longitudinally along their bodies and resemble comb teeth, which is where the name "Ctenophora" comes from (from Greek: κτεῖνος, kteînos, "comb", and φέρω, phérō, "to bear").
-Unlike most other ciliated animals, their cilia do not function in locomotion, but rather to maintain a current of water through their bodies for feeding. They are translucent and come in various colors due to the presence of guanine crystals within their cells. The comb jelly is an interesting creature with a simple body structure consisting of a bell-shaped outer casing, from which eight rows of cilia protrude, surrounding a central stalk or bulb that contains the mouth, gonads, and digestive organs.
-Compared to many other marine creatures, there are only about 150 described species of Ctenophora found in the world's oceans. They can be found in both tropical and cold waters, from the shallow coastal regions to the depths of the ocean floor. Despite their delicate appearance, they are capable predators, feeding on small zooplankton, such as krill and copepods.</t>
+          <t xml:space="preserve"> Lava, which is molten rock produced by a volcano, is not actually "stored" anywhere inside a volcano. Instead, it resides within the mantle beneath the Earth's crust, at depths of 50 to 200 kilometers (31-124 miles). When magma rises towards the surface due to pressure or other factors, it becomes lava upon reaching the Earth's surface and erupting from the volcano. The storage chambers for magma in a volcano are called magma chambers or reservoirs, which are usually located just below the active part of the volcano where there is enough space to accommodate rising magma without causing immediate eruptions.</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G16" t="n">
-        <v>8</v>
+        <v>119</v>
       </c>
       <c r="H16" t="n">
-        <v>35.66501569747925</v>
+        <v>21.54877090454102</v>
       </c>
       <c r="I16" t="n">
-        <v>12.9505625</v>
+        <v>14.86622222222222</v>
       </c>
       <c r="J16" t="n">
-        <v>93.84375</v>
+        <v>95.72222222222223</v>
       </c>
     </row>
     <row r="17">
@@ -1062,36 +1083,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Along with non-governmental and nonstate schools, what is another name for private schools?</t>
+          <t>who sang lead vocals on amie by pure prairie league</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>indipendent</t>
+          <t xml:space="preserve"> In his book Music : What Happened ? , musician and music critic Scott Miller described the song as `` quintessentially 1972 '' and `` lovely '' . Mike DeGagne of Allmusic called it `` a charming little country - pop tune '' and `` their most memorable , '' praising its melody and Craig Fuller 's lead vocals . Rock historian John Einarson , citing the song 's `` lilting harmonies and subtle acoustic playing , '' called it `` a classic of the country rock genre . '' </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Another common term for private schools is independent schools. These are educational institutions that operate independently from local, state, or national government systems and are often funded through tuition fees, endowments, and private donations. This independence allows them to set their own curriculum, staffing policies, and academic calendars, among other factors.</t>
+          <t xml:space="preserve"> The lead vocals on "Amie" by Pure Prairie League were sung by Vince Gill, who joined the band in 1978, after the release of their first album, but prior to the recording of their second and third albums (which included "Amie"). However, the original writer and vocalist of "Amie" was Craig Fuller.</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F17" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="H17" t="n">
-        <v>8.638007402420044</v>
+        <v>11.16749310493469</v>
       </c>
       <c r="I17" t="n">
-        <v>12.84057142857143</v>
+        <v>14.88866666666667</v>
       </c>
       <c r="J17" t="n">
-        <v>75</v>
+        <v>96.55555555555556</v>
       </c>
     </row>
     <row r="18">
@@ -1100,36 +1121,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>What is the largest city of Poland?</t>
+          <t>who led the american occupation of puerto rico during the spanish-american war</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Warsaw</t>
+          <t xml:space="preserve"> Under the terms of the Treaty of Paris of 1898 , ratified on December 10 , 1898 , Puerto Rico was ceded to the United States . Spain had lost its last colony in the Western Hemisphere and the United States gained imperial strength and global presence . The United States established a military government and appointed Miles the first head of the military government established on the island , acting as both head of the army of occupation and administrator of civil affairs . Members of the Spanish forces and civilians who were loyal to the Spanish Crown were allowed to return to Spain . By October 18 , the Spanish withdrawal from Puerto Rico was completed as the final troops left San Juan for Spain . Those who belonged to the Spanish military who decided to stay in Puerto Rico were offered the option by the United States to serve in the newly formed `` Porto Rico Regiment '' . Some took the offer , such as Teófilo Marxuach , a former Lieutenant in the Spanish Army who joined the regiment , and others , such as Capt . Angel Rivero Méndez , declined the offer and retired from the military . </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The largest city in Poland is Warsaw (Warszawa). It's also the country's capital.</t>
+          <t xml:space="preserve"> The American occupation of Puerto Rico during the Spanish-American War was not exactly a "military campaign" led by one person, but rather an outcome of the peace treaty that ended the war. The U.S. military forces, under the overall command of General Nelson A. Miles, captured Puerto Rico from Spain in July 1898 during the brief conflict. However, it was not until December 10, 1898, with the signing of the Treaty of Paris, that Spain ceded Puerto Rico to the United States. Afterward, the U.S. appointed a civilian governor, Charles Herbert Allen, who oversaw the administration of the island from August 1899 until April 1900.</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="F18" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="H18" t="n">
-        <v>4.042243242263794</v>
+        <v>21.20690298080444</v>
       </c>
       <c r="I18" t="n">
-        <v>11.332</v>
+        <v>14.87722222222222</v>
       </c>
       <c r="J18" t="n">
-        <v>59</v>
+        <v>96.72222222222223</v>
       </c>
     </row>
     <row r="19">
@@ -1138,42 +1159,46 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>By what means is imperialism usually administered?</t>
+          <t>who was invited to the parliament of religious in 1893</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>colonization, use of military force, or other means</t>
+          <t xml:space="preserve">  The Jain preacher Virchand Gandhi was invited as a representative of Jainism .   The Buddhist preacher Anagarika Dharmapala was invited as a representative of `` Southern Buddhism , '' the term applied at that time to the Theravada .   Soyen Shaku , the `` First American Ancestor '' of Zen , made the trip .   An essay by the Japanese Pure Land master Kiyozawa Manshi , `` Skeleton of the philosophy of religion '' was read in his absence .   Swami Vivekananda represented Hinduism as a delegate , introducing Hinduism at the opening session of the Parliament on 11 September . Though initially nervous , he bowed to Saraswati , then began his speech with salutation , `` Sisters and brothers of America ! '' . To these words he got a standing ovation from a crowd of seven thousand , which lasted for two minutes . When silence was restored he began his address . He greeted the youngest of the nations on behalf of `` the most ancient order of monks in the world , the Vedic order of sannyasins , a religion which has taught the world both tolerance and universal acceptance. ! ''   Islam was represented by Mohammed Alexander Russell Webb , an Anglo - American convert to Islam and the former US ambassador to Philippine .   Rev. Henry Jessup addressing the World Parliament of Religions was the first to publicly discuss the Bahá'í Faith in the United States ( it had previously been known in Europe . ) Since then Bahá'ís have become active participants .   Theism or the Brahmo Samaj was represented by Pratap Chandra Majumdar   New religious movements of the time , such as Spiritualism and Christian Science . The latter was represented by Septimus J. Hanna , who read an address written by its founder Mary Baker Eddy .  </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Imperialism is usually administered through various means, which often include:
-1. Colonial Administration: The establishment of a system of governance that allows the colonizing power to control and exploit the resources of the colony while maintaining order. This could involve the appointment of governing bodies, such as a governor-general or other officials who report back to the home country.
-2. Indirect Rule: In this method, local rulers are maintained but are controlled by the imperial power through various means like appointing advisors, requiring them to follow certain policies, and maintaining military forces in case of rebellion.
-3. Assimilation: This policy aims to integrate the subject population into the culture, economy, and political system of the imperial power. It often involves abolishing local customs, languages, and laws, and promoting those of the imperial power.
-4. Informal Imperialism: This is a more subtle form of control that doesn't involve direct territorial acquisition or governance. Instead, it involves economic, political, and cultural influence over another country, often through trade agreements, foreign aid, or cultural exchanges.
-5. Neo-Imperialism: This refers to the contemporary form of imperialism, characterized by economic domination rather than territorial control. It often involves transnational corporations exploiting resources or labor in developing countries, with little regard for local laws or welfare.
-6. Cultural Imperialism: This is a process where one culture imposes its beliefs, customs, and practices on another, often through the spread of media, technology, and ideology. This can lead to the marginalization or loss of local cultures and traditions.</t>
+          <t xml:space="preserve"> The Parliament of Religions, which took place during the World's Columbian Exposition (the Chicago World's Fair) in 1893, was an event that gathered representatives from various religions to discuss their beliefs and practices. Some notable figures who were invited and attended include:
+1. Swami Vivekananda - Representative of Hinduism and one of the most famous attendees, who delivered a speech that is now known as "Brothers and Sisters of America."
+2. Mahatma Gandhi (although he did not attend in person, he wrote a letter to the Parliament expressing his support for the event)
+3. Shidi Kagahada - Representative of Shintoism from Japan
+4. Henry Oldham - Representative of Islam from Egypt
+5. Sufi Abdul Hamid - Representative of Islam from Turkey
+6. John Bachofen and Max Muller - Representatives of comparative religion
+7. Mary Baker Eddy - Founder of Christian Science
+8. Anna Julia Cooper - African-American educator, civil rights activist, and author who represented the Unitarian Universalist Association.
+9. Stephen Watts Downey - A member of the Native American Church representing indigenous religions.
+10. Rabbi Kohn - Representative of Judaism from the United States.</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="F19" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>8</v>
+        <v>307</v>
       </c>
       <c r="H19" t="n">
-        <v>40.09371423721313</v>
+        <v>38.41922903060913</v>
       </c>
       <c r="I19" t="n">
-        <v>12.95747222222222</v>
+        <v>14.8749696969697</v>
       </c>
       <c r="J19" t="n">
-        <v>93.52777777777777</v>
+        <v>95.93939393939394</v>
       </c>
     </row>
     <row r="20">
@@ -1182,44 +1207,55 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>How long did it take to improve on Sir Isaac Newton's laws of motion?</t>
+          <t>what teams in the nba go to the playoffs</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>nearly three hundred years</t>
+          <t xml:space="preserve"> In September 2015 , the NBA announced changes to the formula used to determine the format of the 2016 NBA Playoffs . The top eight teams in each conference ( East and West ) , ranked in order by win - loss records , qualify for the playoffs . The tie - break criteria for playoff seeding and home - court advantage have also changed ; head - to - head results between the tied teams is the first tie - breaker , and whether a team won its division championship is the second tie - breaker . </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Improvements and expansions upon Sir Isaac Newton's laws of motion were made by various scientists throughout history, but the timeline is quite extensive. Here are some key milestones:
-1. 1687: Publication of Newton's "Philosophiæ Naturalis Principia" (Mathematical Principles of Natural Philosophy) which introduced his three laws of motion.
-2. 1744-1745: Euler's work on the dynamics of rigid bodies, building upon and extending Newtonian mechanics.
-3. Late 18th century to early 19th century: The development of Lagrangian and Hamiltonian mechanics by Joseph-Louis Lagrange and William Rowan Hamilton, respectively, which provided alternative formulations of classical mechanics, making it easier to solve certain problems and more amenable to generalization.
-4. Mid 19th century: James Clerk Maxwell's electromagnetic theory, demonstrating that electric and magnetic forces could be described by a set of four equations, now known as Maxwell's equations. This work not only furthered our understanding of electromagnetism but also connected it with optics.
-5. Late 19th century: Hendrik Antoon Lorentz developed the Lorentz force law, which describes the interaction between a charged particle and an electromagnetic field.
-6. Early 20th century: Albert Einstein published his Special Theory of Relativity (1905) and General Theory of Relativity (1915). The special theory introduced the concept of space-time and showed that the laws of physics, including Newton's laws, are approximations valid only at low velocities. The general theory replaced Newton's law of universal gravitation with a geometrical description of gravity as the curvature of spacetime caused by mass and energy.
-7. Mid 20th century: Paul Dirac's work on quantum mechanics, specifically his prediction of antimatter in 1931, demonstrated that even classical mechanics had to be modified when dealing with very small scales (the realm of quantum physics).
-These developments show that improvements and expansions upon Newton's laws continued well beyond his lifetime and remain an active area of research today.</t>
+          <t xml:space="preserve"> In the NBA, the teams that typically go to the playoffs are those that finish among the top 8 in each conference. For the 2021-2022 season, as of March 4, these are the teams projected to make the playoffs:
+Eastern Conference:
+1. Miami Heat (63-19)
+2. Milwaukee Bucks (58-23)
+3. Brooklyn Nets (57-24)
+4. Philadelphia 76ers (49-30)
+5. Atlanta Hawks (46-34)
+6. Chicago Bulls (43-37)
+7. Boston Celtics (41-38)
+8. Cleveland Cavaliers (42-38)
+Western Conference:
+1. Phoenix Suns (63-19)
+2. Memphis Grizzlies (55-26)
+3. Utah Jazz (54-27)
+4. Denver Nuggets (50-31)
+5. Los Angeles Clippers (48-32)
+6. Golden State Warriors (44-36)
+7. Dallas Mavericks (44-36)
+8. Portland Trail Blazers (43-37)
+These projections are subject to change as the regular season continues and teams play more games. Teams ranked 9th and above in their conference do not typically make the playoffs, but they may still have a chance if other teams falter or experience significant injuries.</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>303</v>
+        <v>155</v>
       </c>
       <c r="F20" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="H20" t="n">
-        <v>56.87629365921021</v>
+        <v>46.66066575050354</v>
       </c>
       <c r="I20" t="n">
-        <v>12.90062745098039</v>
+        <v>14.87346341463415</v>
       </c>
       <c r="J20" t="n">
-        <v>93</v>
+        <v>95.8780487804878</v>
       </c>
     </row>
     <row r="21">
@@ -1228,43 +1264,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>What aspects of life does Islamism seek to integrate itself into?</t>
+          <t>when did they stop using knob and tube wiring in homes</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>all spheres of life.</t>
+          <t xml:space="preserve"> Knob - and - tube wiring ( sometimes abbreviated K&amp;T ) is an early standardized method of electrical wiring in buildings , in common use in North America from about 1880 to the 1930s . It consisted of single - insulated copper conductors run within wall or ceiling cavities , passing through joist and stud drill - holes via protective porcelain insulating tubes , and supported along their length on nailed - down porcelain knob insulators . Where conductors entered a wiring device such as a lamp or switch , or were pulled into a wall , they were protected by flexible cloth insulating sleeving called loom . The first insulation was asphalt - saturated cotton cloth , then rubber became common . Wire splices in such installations were twisted together for good mechanical strength , then soldered and wrapped with rubber insulating tape and friction tape ( asphalt saturated cloth ) , or made inside metal junction boxes . </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1. Political System: Islamism advocates for the establishment or re-establishment of an Islamic state, often referred to as a caliphate or an Ummah (community of believers). The political system in such a state is based on Sharia law.
-2. Legal System: Islamism aims to replace secular legal systems with one based on the principles and interpretations of Sharia law. This can include various aspects of criminal law, family law, property law, and civil law.
-3. Social Structure: Islamism seeks to integrate Islamic values into social norms and behaviors. This could involve advocating for the segregation of men and women in public spaces, promoting the adoption of traditional Islamic dress codes, and discouraging practices that are considered haram (forbidden) according to Islamic teachings.
-4. Education System: Islamism encourages an education system that promotes Islamic values and teaches Sharia law. This can include the use of Islamic texts as a primary source of knowledge, and the incorporation of religious studies into the curriculum.
-5. Economic System: While there is no universally accepted model for an Islamic economy, Islamism advocates for economic practices that align with Islamic principles, such as prohibiting interest (riba), promoting fair trade, and encouraging charitable giving (zakat).
-6. Cultural Expression: Islamism seeks to integrate Islamic values into cultural expressions, including music, art, literature, and media. This can involve censorship of material deemed contrary to Islamic teachings, and the promotion of Islamic themes in cultural productions.
-7. Foreign Policy: Islamism often influences a country's foreign policy, with a focus on promoting Islamic principles globally and supporting Muslim-majority countries or causes. This can include providing aid to Muslim communities, supporting jihad (holy war), and advocating for the protection of Islamic sacred sites.
-8. Personal Conduct: Islamism encourages individuals to integrate Islamic values into their daily lives, including prayer, fasting during Ramadan, charity, honesty, and respect for others.</t>
+          <t xml:space="preserve"> Knob and tube (K&amp;T) wiring, a method of electrical wiring that uses individual insulated copper wires encased in flexible fabric tubing, with porcelain or vinyl knobs to provide mechanical support, was primarily used from the late 1800s to the mid-1950s. In North America, the National Electrical Code (NEC) started phasing out K&amp;T wiring by the mid-1960s, and it became increasingly uncommon after that period. However, due to its longevity, some homes still have K&amp;T wiring installed, especially in older buildings. It is essential to be aware of this type of wiring when purchasing or renovating an old home, as it may pose safety risks if not updated properly.</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>306</v>
+        <v>108</v>
       </c>
       <c r="F21" t="n">
         <v>11</v>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="H21" t="n">
-        <v>51.15647554397583</v>
+        <v>23.10932278633118</v>
       </c>
       <c r="I21" t="n">
-        <v>12.87539130434782</v>
+        <v>14.88147368421052</v>
       </c>
       <c r="J21" t="n">
-        <v>92.43478260869566</v>
+        <v>94.78947368421052</v>
       </c>
     </row>
     <row r="22">
@@ -1273,36 +1302,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>When was the current parliament of Scotland convened?</t>
+          <t>when did they stop hanging in the us</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Following a referendum in 1997</t>
+          <t xml:space="preserve"> Hanging has been practiced legally in the United States of America from the nation 's birth , up to 1972 when the United States Supreme Court found capital punishment to be in violation of the eighth amendment to the United States Constitution . Four years later , the Supreme Court overturned its previous ruling , and in 1976 , capital punishment was again legalized in the United States . Hanging has returned to the states of Washington and New Hampshire . </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I'm sorry for any confusion, but it's important to clarify that there is no current parliament of Scotland as Scotland is now a devolved nation within the United Kingdom. The Scottish Parliament in its modern form (devolved parliament) was established on July 1, 1999, following the referendum held on September 11, 1997, which approved the establishment of this parliament. Before that, the Parliament of Scotland or the "Parliament of the Kingdom of Scotland" had its last meeting in 1707, when it merged with the Parliament of England to form the Parliament of Great Britain (later known as the Parliament of the United Kingdom).</t>
+          <t xml:space="preserve"> It seems there might be some confusion in your question. The phrase "they" is not specific enough to provide a clear answer. If you're asking about capital punishment (death penalty), it's important to note that the death penalty is still legal in some states of the United States, although its application varies greatly and has been subject to much debate. However, I recommend consulting a more authoritative source for the most accurate information on this topic. If you meant something else by "they," please provide more context so I can give a more accurate response.</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F22" t="n">
         <v>8</v>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="H22" t="n">
-        <v>16.89821267127991</v>
+        <v>15.88184142112732</v>
       </c>
       <c r="I22" t="n">
-        <v>13.09786666666667</v>
+        <v>14.88046153846153</v>
       </c>
       <c r="J22" t="n">
-        <v>89.73333333333333</v>
+        <v>95.76923076923077</v>
       </c>
     </row>
     <row r="23">
@@ -1311,46 +1340,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>The immune system protects organisms against what?</t>
+          <t>the day the earth stood still famous phrase</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>disease</t>
+          <t xml:space="preserve"> `` Klaatu barada nikto '' is a phrase that originated in the 1951 science fiction film The Day the Earth Stood Still . The humanoid alien protagonist of the film , Klaatu ( Michael Rennie ) , instructs Helen Benson ( Patricia Neal ) that if any harm befalls him , she must say the phrase to the robot Gort ( Lockard Martin ) . In response Gort relents from destroying the Earth and resurrects Klaatu from death . </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1. Pathogens (bacteria, viruses, fungi, parasites)
-2. Toxins and other harmful substances
-3. Abnormal cells in the body (cancer cells)
-4. Foreign substances that enter the body (pollen, dust mites)
-5. Trauma or injury to tissue
-6. Transplanted organs or tissues that are not a good match for the recipient's immune system
-7. Chemicals and other environmental pollutants
-8. Injuries caused by radiation
-9. Autoimmune disorders where the body attacks its own cells mistakenly
-10. Allergens causing allergic reactions in sensitive individuals.
-The immune system plays a crucial role in maintaining the health and well-being of living organisms, defending them against a wide array of threats to their integrity.</t>
+          <t xml:space="preserve"> The famous phrase from "The Day the Earth Stood Still" is "Klaatu barada nikto," which was used to signal that the humanoid alien character Klaatu meant peace. This phrase was crucial in the film, as it saved Klaatu's life when he was being threatened by military forces.</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="F23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="H23" t="n">
-        <v>21.67664456367493</v>
+        <v>9.789788961410522</v>
       </c>
       <c r="I23" t="n">
-        <v>13.31194736842105</v>
+        <v>14.87928571428571</v>
       </c>
       <c r="J23" t="n">
-        <v>86.47368421052632</v>
+        <v>92.85714285714286</v>
       </c>
     </row>
     <row r="24">
@@ -1359,38 +1378,41 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>How much was the combined wealth of the "10 Million dollar millionaires" in 2008?</t>
+          <t>what is the purpose of constructing a calibration curve</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>nearly $41 trillion</t>
+          <t xml:space="preserve"> In analytical chemistry , a calibration curve , also known as a standard curve , is a general method for determining the concentration of a substance in an unknown sample by comparing the unknown to a set of standard samples of known concentration . A calibration curve is one approach to the problem of instrument calibration ; other standard approaches may mix the standard into the unknown , giving an internal standard . </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> To provide an answer, I would need specific data on the number of "10 million dollar millionaires" (individuals with a net worth of exactly $10 million) and their average wealth. However, for context, it's important to note that the term "millionaire" is often used to refer to individuals with at least $1 million in assets, but can also be used more broadly to encompass higher-net-worth individuals.
-As of 2008, there were approximately 466,593 high net worth individuals (HNWI) worldwide with a minimum net worth of $10 million, according to the Knight Frank Wealth Report. The average wealth of this group was estimated at around $18.7 million in 2008. So, calculating for the number of "10 million dollar millionaires" would be difficult without specific data.
-This means that if we were to make an approximation based on the Knight Frank Wealth Report's average wealth data, the combined wealth of all HNWIs (including those with net worth above $10 million) in 2008 would have been around $8.7 trillion.</t>
+          <t xml:space="preserve"> A calibration curve is used to relate an instrument's response (such as signal intensity or output) to the concentration, amount, or property being measured. It serves several purposes:
+1. To establish the relationship between the instrumental measurement and the true value of the quantity being measured. This allows for the conversion of raw data from the instrument into meaningful units that can be easily understood and interpreted.
+2. To determine the linearity range of an instrument, which is the range of concentrations or amounts where the instrument's response is proportional to the actual value. This helps in choosing the appropriate measuring range for accurate results.
+3. To compensate for instrumental drift, systematic errors, and other sources of bias by adjusting the instrument based on the calibration curve. This ensures that the measured values are as close as possible to the true values.
+4. To quantify the precision and accuracy of the measurement method or instrument used. By repeating measurements under controlled conditions and analyzing the resulting data, the error associated with the measurement can be determined and potential sources of error can be identified and addressed.
+5. To validate the suitability of the analytical method for a given application by demonstrating that it meets the necessary accuracy, precision, and linearity requirements. This helps in ensuring reliable and consistent results when applying the method to real-world samples.</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>166</v>
+        <v>226</v>
       </c>
       <c r="F24" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="H24" t="n">
-        <v>29.4234402179718</v>
+        <v>37.92860889434814</v>
       </c>
       <c r="I24" t="n">
-        <v>12.94334615384615</v>
+        <v>14.86948484848485</v>
       </c>
       <c r="J24" t="n">
-        <v>92.23076923076923</v>
+        <v>95.96969696969697</v>
       </c>
     </row>
     <row r="25">
@@ -1399,36 +1421,60 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>When did the 1973 oil crisis begin?</t>
+          <t>how many varieties of quality street chocolates are there</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>October 1973</t>
+          <t xml:space="preserve"> The sweets within the box have changed and evolved over the years . As of October 2017 , there are 13 flavours of the individually wrapped sweets , all of which are either chocolate or toffee based , as follows : </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The 1973 oil crisis, also known as the "October War" embargo or the "Energy Crisis of 1973-1974," began on October 16, 1973. This international energy supply disruption was precipitated by the decision of members of the Organization of Arab Petroleum Exporting Countries (OAPEC) to stop supplying oil to countries that supported Israel during the Yom Kippur War. The crisis lasted until March 1974, leading to a significant increase in oil prices and an economic slowdown around the world.</t>
+          <t xml:space="preserve"> As of 2021, there are 24 different varieties of Quality Street chocolates. They are:
+1. The Purple One (Triple Chocolate Delight)
+2. Strawberry Delight with a Creamy Centre
+3. Orange Crunch
+4. Yummy Yorp (Yogurt Coated Honeycomb)
+5. Green Triangle (Milk Chocolate topped with Caramel and a Hazelnut)
+6. Toffee Penny
+7. The Original Milk Chocolate
+8. Honeycomb Crunch
+9. Milk Chocolate Florentine
+10. Caramel Swirl
+11. Fudge (Milk Fudge)
+12. Dark Chocolate Block
+13. Toffee Deluxe
+14. The Ruby (Raspberry and Violet Crisp)
+15. Coconut Éclair
+16. Strawberry Delight
+17. Milk Chocolate Snowflake
+18. Caramel Fudge (Soft Caramel with a Crunchy Centre)
+19. Toffee Deluxe Mint Crisp
+20. Dark Chocolate Truffle
+21. Milk Chocolate Honeycomb
+22. Coconut Éclair Miniature
+23. Strawberry Delight Miniature
+24. The Original Milk Chocolate Miniature</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="F25" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="H25" t="n">
-        <v>15.34531545639038</v>
+        <v>41.73413181304932</v>
       </c>
       <c r="I25" t="n">
-        <v>13.03076923076923</v>
+        <v>14.87238888888889</v>
       </c>
       <c r="J25" t="n">
-        <v>87</v>
+        <v>96.16666666666667</v>
       </c>
     </row>
     <row r="26">
@@ -1437,36 +1483,44 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>When were the Normans in Normandy?</t>
+          <t>where is the silk road located on a map</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>10th and 11th centuries</t>
+          <t xml:space="preserve"> The Silk Road or Silk Route was an ancient network of trade routes that were for centuries central to cultural interaction originally through regions of Eurasia connecting the East and West and stretching from the Korean peninsula and Japan to the Mediterranean Sea . The Silk Road concept refers to both the terrestrial and the maritime routes connecting Asia and Europe . The overland Steppe route stretching through the Eurasian steppe is considered the ancestor to the Silk Road ( s ) . </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Normans, also known as the Northmen or Vikings, first arrived in what is now Normandy (a region in France) around the late 9th century. They began to settle and establish themselves as a powerful force in the region during the 10th century under their first notable leader, Rollon, who was given control of the area by King Charles the Simple of France in 911 as part of a treaty to stop Viking raids on the French coast. The Duchy of Normandy was formally established in 933 when Hugh the Great was granted the territory by King Louis IV. So, technically speaking, the Normans have been in Normandy for over 1,000 years.</t>
+          <t xml:space="preserve"> The Silk Road was not a single, continuous route but a network of trade routes that connected the East (China) with the West (Europe). On a map, it spanned across several countries in Asia and Europe. Here's an overview:
+1. China - Started in Chang'an (currently Xi'an) or Luoyang.
+2. Through Gansu province and Xinjiang Uygur Autonomous Region in western China, passing through cities like Dunhuang.
+3. Continued through the Taklamakan Desert and reached Central Asia, passing through present-day Kyrgyzstan, Tajikistan, Uzbekistan, Turkmenistan, Kazakhstan.
+4. Crossed into Persia (Iran), passing through cities like Merv, Bukhara, Samarkand, and Herat.
+5. Continued through Afghanistan, reaching Pakistan and India.
+6. Spread westward to Arabia, Syria, and Turkey.
+7. Finally reached the Mediterranean Sea, connecting with European cities like Antioch (Turkey), Alexandria (Egypt), and Rome (Italy).
+This map shows a general route of the Silk Road: https://www.google.com/maps/d/u/0/edit?mid=1G9v_JZrIWyK6hCg-T2mUJc7Rz_E&amp;ll=34.285827086183616%2C69.23819675844909&amp;z=6</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="F26" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="H26" t="n">
-        <v>17.81754183769226</v>
+        <v>47.99671268463135</v>
       </c>
       <c r="I26" t="n">
-        <v>12.703375</v>
+        <v>14.87730952380952</v>
       </c>
       <c r="J26" t="n">
-        <v>87.625</v>
+        <v>94.38095238095238</v>
       </c>
     </row>
     <row r="27">
@@ -1475,36 +1529,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>What is it called when people in society rebel against laws they think are unfair?</t>
+          <t>who won the us open 2017 golf tournament</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Civil disobedience</t>
+          <t xml:space="preserve"> The 2017 U.S. Open Championship was the 117th U.S. Open , held June 15 -- 18 , 2017 at Erin Hills in Erin , Wisconsin , northwest of Milwaukee . The event was won by Brooks Koepka , who claimed his first major after finishing with a final score of 16 under par . This score matched the lowest score ever attained at the tournament , a record set in 2011 by Rory McIlroy . </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The term you're looking for is "Civil Disobedience." Civil disobedience refers to the active, but nonviolent, resistance to laws, regulations, or actions of a government or other authority considered oppressive, unjust, or undemocratic. It is a method of protest that seeks to draw attention to and challenge these perceived injustices by refusing to comply with them. Notable examples include the American Civil Rights Movement led by Martin Luther King Jr., the Indian independence movement led by Mahatma Gandhi, and the Suffragette movement in Britain. It's important to note that while civil disobedience is a means of protest, it should not be confused with lawlessness or anarchy, as it operates within the bounds of nonviolent resistance.</t>
+          <t xml:space="preserve"> The U.S. Open is a major championship in golf, and it's not associated with tennis (as per your username). In 2017, the U.S. Open was held at Erin Hills in Wisconsin from June 15 to June 18. The winner of that tournament was Brooks Koepka, who finished at -16 under par. He won a four-hole playoff against runner-up Hideki Matsuyama.</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="F27" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="H27" t="n">
-        <v>19.25461888313293</v>
+        <v>14.05570316314697</v>
       </c>
       <c r="I27" t="n">
-        <v>12.78629411764706</v>
+        <v>14.88745454545454</v>
       </c>
       <c r="J27" t="n">
-        <v>88.76470588235294</v>
+        <v>97.18181818181819</v>
       </c>
     </row>
     <row r="28">
@@ -1513,42 +1567,40 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>What are the main sources of primary law?</t>
+          <t>what's the difference between tweedle dee and tweedle dum</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Treaties establishing the European Union</t>
+          <t xml:space="preserve"> Tweedledum and Tweedledee are fictional characters in an English nursery rhyme and in Lewis Carroll 's Through the Looking - Glass , and What Alice Found There . Their names may have originally come from an epigram written by poet John Byrom . The nursery rhyme has a Roud Folk Song Index number of 19800 . The names have since become synonymous in western popular culture slang for any two people who look and act in identical ways , generally in a derogatory context . </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The main sources of primary law, also known as the primary legal sources, vary slightly depending on the legal system but generally include:
-1. Constitutions: The supreme legal document in a country that sets out its fundamental laws and establishes the structure, procedures, powers, and duties of the government. In some countries, like the United States, it is the Constitution that provides the foundation for all other laws.
-2. Statutes (Acts or Legislation): These are written laws enacted by a legislative body, such as Congress in the U.S., Parliament in the UK, or the Bundestag in Germany. They often deal with specific matters and have general applicability across the jurisdiction.
-3. Regulations (Delegated or Secondary Legislation): These are rules issued by governmental agencies or departments to implement and interpret statutes. The goal is to provide greater detail, clarify ambiguities in laws, or set specific requirements for their enforcement.
-4. Case Law (Precedent or Jurisprudence): This source of primary law consists of decisions made by courts in individual cases that serve as a guide for future decisions on similar issues. The principles established through case law help to ensure consistency and predictability in the application of the law.
-5. Customary Law: In some legal systems, long-standing customs and traditions can be recognized as law, especially when they have been accepted and followed for so long that they are considered binding. This is particularly important in international law and indigenous communities.
-6. International Treaties and Conventions: These are agreements between nations on specific issues, such as human rights or trade, which are intended to be binding and enforceable under international law. When ratified by a country, they become part of its internal legal system.</t>
+          <t xml:space="preserve"> Tweedledee and Tweedledum are fictional characters from Lewis Carroll's "Through the Looking-Glass," a sequel to his more famous work, "Alice's Adventures in Wonderland." Despite sharing many similarities due to being portrayed as identical twins, there are some subtle differences between Tweedledee and Tweedledum:
+1. Personalities: Although both characters often speak at the same time, Tweedledee is generally described as more emotional and impulsive, while Tweedledum is calmer and more rational.
+2. Physical Attributes: There are slight differences in their physical appearances, although these distinctions are often overlooked due to their identical clothing and overall similarities. In Carroll's original illustrations by John Tenniel, it can be seen that Tweedledee has a more rounded face and larger eyes compared to Tweedledum, who appears broader and stockier.
+3. Dialogue: Tweedledee is usually the one who initiates the dialogue between the two, whereas Tweedledum responds or contributes less frequently. This is evident in their interactions with Alice during her encounter with them, such as when they discuss whether it's "winter here" or "not."
+4. Symbolism: Some interpretations suggest that Tweedledee and Tweedledum represent two sides of the same coin or two aspects of a single character. This symbolizes the idea of unity and duality, as they are indistinguishable in many ways yet possess their unique traits.</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>282</v>
+        <v>212</v>
       </c>
       <c r="F28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G28" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="H28" t="n">
-        <v>43.83410668373108</v>
+        <v>46.75871992111206</v>
       </c>
       <c r="I28" t="n">
-        <v>12.92197435897436</v>
+        <v>14.87153658536585</v>
       </c>
       <c r="J28" t="n">
-        <v>88.74358974358974</v>
+        <v>95.07317073170732</v>
       </c>
     </row>
     <row r="29">
@@ -1557,36 +1609,43 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Where did the black death originate?</t>
+          <t>what do the lyrics mean to lady marmalade</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>the arid plains of Central Asia</t>
+          <t xml:space="preserve"> Labelle 's version of `` Lady Marmalade '' was produced by Allen Toussaint and Vicki Wickham . It was released in November 1974 from Nightbirds , their first album after signing with Epic Records . Patti LaBelle sang lead vocals on `` Lady Marmalade '' with backing vocals being contributed by bandmates Nona Hendryx and Sarah Dash . The song is best known for the French lyric `` Voulez - vous coucher avec moi ce soir ? '' ( English : `` Would you like to sleep with me tonight ? '' ) in the refrain . `` Lady Marmalade '' is a song about a prostitute , although Patti LaBelle , the lead female vocal of the band , was completely oblivious to its overall message , saying : `` I did n't know what it was about . I do n't know French and nobody , I swear this is God 's truth , nobody at all told me what I 'd just sung a song about . '' </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Black Death, one of the most devastating pandemics in human history, is believed to have originated in Central Asia, specifically in the region of present-day Mongolia. It began as a bubonic plague among rats and their fleas that lived in the dense populations of black rats associated with human habitation along the Silk Road trade routes in the mid-14th century (around 1346–1353 AD). The exact location within Mongolia is not definitively known, but theories suggest it could have been near the city of Peking or the steppes north of the Yellow River. From Asia, the plague spread rapidly westward across Eurasia, reaching Europe by 1347 and eventually affecting much of the continent, North Africa, and the Middle East. The Black Death killed an estimated 75-200 million people and altered the course of human history.</t>
+          <t xml:space="preserve"> "Lady Marmalade" is a song by Christina Aguilera, Lil' Kim, Mya, and Pink from the Moulin Rouge! soundtrack. The lyrics are primarily about Satine, the main female character in the movie, and her relationship with the Duke of Monroth, played by Ewan McGregor.
+Here is a breakdown of some key lyrics:
+- "Voulez-vous coucher avec moi ce soir?" which translates to "Do you want to sleep with me tonight?" is a French phrase that sets the scene for the rest of the song.
+- "Mimi, she was a girl in a port city" refers to Satine, who grew up in a seaport city (Harmony Island).
+- "Workin' like a prostitute on the streets of Old New Orleans" suggests that Satine worked as an entertainer at the Moulin Rouge. The phrase is repeated throughout the song and has become iconic.
+- "Treat her mean, keep her fiendish, gotta be more than just your average lady" indicates that the Duke keeps Satine in a precarious position, maintaining their relationship through manipulation and control.
+- "I'm not that girl, I'm the Lady Marmalade" is Satine asserting her independence and self-worth, ultimately choosing to leave the Duke for a better life with Christian (played by Jared Leto).
+Overall, the song represents the struggle between love, manipulation, and power in the story of Moulin Rouge.</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="F29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G29" t="n">
-        <v>6</v>
+        <v>171</v>
       </c>
       <c r="H29" t="n">
-        <v>22.53444337844849</v>
+        <v>46.24624991416931</v>
       </c>
       <c r="I29" t="n">
-        <v>12.823</v>
+        <v>14.864825</v>
       </c>
       <c r="J29" t="n">
-        <v>89.75</v>
+        <v>92.875</v>
       </c>
     </row>
     <row r="30">
@@ -1595,36 +1654,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>What did Paul Baran develop?</t>
+          <t>who was the actress that played tony montana's sister</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Paul Baran developed the concept Distributed Adaptive Message Block Switching</t>
+          <t xml:space="preserve"> Mary Elizabeth Mastrantonio ( born November 17 , 1958 ) is an American actress and singer . She made her Broadway debut in the 1980 revival of West Side Story , and went on to appear in the 1983 film Scarface as Al Pacino 's character 's sister , Gina Montana . For her role as Carmen in the 1986 film The Color of Money , she was nominated for the Academy Award for Best Supporting Actress . Her other film roles include The Abyss ( 1989 ) , Robin Hood : Prince of Thieves ( 1991 ) , and The Perfect Storm ( 2000 ) . In 2003 , she was nominated for the Tony Award for Best Actress in a Musical for the Broadway revival of Man of La Mancha . </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Paul Baran developed the concept of packet switching, which is a fundamental technology for data communication in computer networks. In the late 1950s and early 1960s, he designed and proposed the idea of message switching systems that broke down messages into small packets, stored them in memory, and reassembled them at their destination. Baran's work was instrumental to the development of modern computer networks such as the Internet.</t>
+          <t xml:space="preserve"> In the film "Scarface" (1983), Tony Montana's sister, Sara Montana, was portrayed by actress Elviraai Quintana-Roo. However, it is important to note that in Brian De Palma's 1983 version of "Scarface," Sara Montana is not the actual sister of Tony Montana but rather a mistress. In the original 1932 film adaptation and the Cuban novela by Arnaldo Mora, Sara Montana was the sister of the protagonist, Tony Camonte (the character Tony Montana is based on). The actress who played Sara Montana in the 1932 version was named Ofelia Tentes.</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="F30" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G30" t="n">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="H30" t="n">
-        <v>11.08694863319397</v>
+        <v>21.27166748046875</v>
       </c>
       <c r="I30" t="n">
-        <v>12.4326</v>
+        <v>14.87011111111111</v>
       </c>
       <c r="J30" t="n">
-        <v>87.09999999999999</v>
+        <v>94.16666666666667</v>
       </c>
     </row>
     <row r="31">
@@ -1633,36 +1692,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>When was the French and Indian War?</t>
+          <t>when does one flew over the cuckoos nest take place</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1754?1763</t>
+          <t xml:space="preserve"> One Flew Over the Cuckoo 's Nest was written in 1959 and published in 1962 in the midst of the Civil Rights Movement and deep changes to the way psychology and psychiatry were being approached in America . The 1960s began the controversial movement towards deinstitutionalization , an act that would have affected the characters in Kesey 's novel . The novel is a direct product of Kesey 's time working the graveyard shift as an orderly at a mental health facility in Menlo Park , California . Not only did he speak to the patients and witness the workings of the institution , but he voluntarily took psychoactive drugs , including mescaline and LSD , as part of Project MKUltra . </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The French and Indian War, known as the Seven Years' War in Europe, took place from 1756 to 1763. This conflict was part of a larger global struggle for colonial supremacy between Great Britain and France. It marked a significant turning point in North American history and set the stage for the American Revolution. The war is named after the alliance between the French and various Native American tribes against British forces, led primarily by the colonists in America.</t>
+          <t xml:space="preserve"> One Flew Over the Cockoo's Nest, written by Ken Kesey and published in 1962, primarily takes place during a single winter season within an Oregon psychiatric hospital in the mid-1950s. The novel is set from November to late February, with the story unfolding over approximately four months. The narrative is largely centered around the protagonist Randle McMurphy's struggle against the oppressive Nurse Ratched and the conflict between freedom and conformity in a mental institution.</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F31" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="H31" t="n">
-        <v>11.76115393638611</v>
+        <v>15.70907425880432</v>
       </c>
       <c r="I31" t="n">
-        <v>12.7281</v>
+        <v>14.88361538461538</v>
       </c>
       <c r="J31" t="n">
-        <v>87.09999999999999</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32">
@@ -1671,36 +1730,43 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>What are the agents the immune system detects known as?</t>
+          <t>types of writs in the constitution of india</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>pathogens</t>
+          <t xml:space="preserve">  The writ of prohibition is issued by a higher court to a lower court prohibiting it from taking up a case because it falls outside the jurisdiction of the lower court . Thus , the higher court transfers the case to itself .   The writ of habeas corpus is issued to a detaining authority , ordering the detainer to produce the detained person in the issuing court , along with the cause of his or her detention . If the detention is found to be illegal , the court issues an order to set the person free .   The writ of certiorari is issued to a lower court directing that the record of a case be sent up for review , together with all supporting files , evidence and documents , usually with the intention of overruling the judgement of the lower court . It is one of the mechanisms by which the fundamental rights of the citizens are upheld .   The writ of mandamus is issued to a subordinate court , an officer of government , or a corporation or other institution commanding the performance of certain acts or duties .   The writ of quo warranto is issued against a person who claims or usurps a public office . Through this writ the court inquires ' by what authority ' the person supports his or her claim .  </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The agents that the immune system detects are primarily pathogens, such as bacteria, viruses, fungi, and parasites. Additionally, the immune system also recognizes and responds to foreign substances like toxins or transplanted organs. In terms of specific molecules, these can be broadly categorized into antigens, which are any molecule that triggers an immune response. This includes proteins on the surface of pathogens, toxins, and altered self-molecules in cases like cancer or autoimmune diseases.</t>
+          <t>1. Writ of Habeas Corpus: This is a writ issued by the High Court to protect individuals from unlawful detention, ordering the authorities to produce the person being held and examine the legality of the detention.
+2. Writ of Mandamus: This is a writ issued by the Supreme Court or High Court to compel a public authority or a government official to perform their statutory duty.
+3. Writ of Prohibition: This is a writ issued by the High Court to prohibit any inferior court, tribunal, or authority from exceeding its jurisdiction or acting ultra vires (beyond the powers) conferred upon it by law.
+4. Writ of Quo Warranto: This is a writ issued by the High Court to question the legality of someone holding a public office, requiring them to show by what warrant they claim the right to hold that position.
+5. Writ of Certiorari: This is a writ issued by the Supreme Court or High Court to direct an inferior court, tribunal, or authority to send up the records of a case for revision. It is used when the court has exceeded its jurisdiction or acted illegally.
+6. Writ of Quo Warranto in Contempt of Court: This writ is issued by the Supreme Court or High Court to punish a person who disobeys an order, judgment, or decree of the court. It is used to compel the person to obey the court's orders and to ensure that justice is not obstructed or hindered.
+7. Writ of Prohibition in Contempt of Court: This writ is issued by the Supreme Court or High Court to prevent a lower court, tribunal, or authority from proceeding further with a case if it has exceeded its jurisdiction or acted illegally in contempt of a higher court's order.
+8. Writ of Mandamus in Contempt of Court: This writ is issued by the Supreme Court or High Court to compel a lower court, tribunal, or authority to perform its statutory duty when it has failed to do so in contempt of a higher court's order.</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>73</v>
+        <v>340</v>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>229</v>
       </c>
       <c r="H32" t="n">
-        <v>13.95760822296143</v>
+        <v>62.16715049743652</v>
       </c>
       <c r="I32" t="n">
-        <v>12.74916666666667</v>
+        <v>14.87227272727273</v>
       </c>
       <c r="J32" t="n">
-        <v>87.25</v>
+        <v>95.16363636363636</v>
       </c>
     </row>
     <row r="33">
@@ -1709,36 +1775,42 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>What branch of theoretical computer science deals with broadly classifying computational problems by difficulty and class of relationship?</t>
+          <t>when can a writ of mandamus be issued</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Computational complexity theory</t>
+          <t xml:space="preserve"> Mandamus ( `` We command '' ) is a judicial remedy in the form of an order from a superior court , to any government subordinate court , corporation , or public authority , to do ( or forbear from doing ) some specific act which that body is obliged under law to do ( or refrain from doing ) , and which is in the nature of public duty , and in certain cases one of a statutory duty . It can not be issued to compel an authority to do something against statutory provision . For example , it can not be used to force a lower court to reject or authorize applications that have been made , but if the court refuses to rule one way or the other then a mandamus can be used to order the court to rule on the applications . </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The branch of theoretical computer science that deals with broadly classifying computational problems by difficulty and the nature of their relationships is called Computational Complexity Theory. This theory aims to understand the inherent difficulties in solving computational problems, which helps guide the development of efficient algorithms and data structures. It introduces important classes like P (Polynomial time), NP (Nondeterministic Polynomial time), NP-complete, NP-hard, and co-NP problems to categorize the complexity of various computational tasks.</t>
+          <t xml:space="preserve"> A Writ of Mandamus is a court order that commands a public official or lower court to properly perform their official duty, which they have failed or refused to do. It can be issued under the following circumstances:
+1. The recipient of the writ holds a public office and has a clear legal duty to perform an act.
+2. The duty is discretionary in nature (not ministerial), but it must not be one that inherently involves a substantial amount of policy-making or decision-making about general matters of public interest.
+3. The petitioner seeking the writ has suffered, or is likely to suffer, a direct legal harm due to the official's failure to perform their duty.
+4. There are no other adequate remedies available for the petitioner.
+5. The law grants the right to issue such a writ in the specific circumstances of the case.
+It's important to note that Writs of Mandamus are typically issued by appellate courts, not trial courts, and they are used sparingly because they can interfere with the discretion of public officials.</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="F33" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>148</v>
       </c>
       <c r="H33" t="n">
-        <v>13.40654897689819</v>
+        <v>31.46266198158264</v>
       </c>
       <c r="I33" t="n">
-        <v>12.53925</v>
+        <v>14.87774074074074</v>
       </c>
       <c r="J33" t="n">
-        <v>89</v>
+        <v>94.4074074074074</v>
       </c>
     </row>
     <row r="34">
@@ -1747,36 +1819,38 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Which coastline does Southern California touch?</t>
+          <t>what is an honorable discharge from the marines</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Pacific</t>
+          <t xml:space="preserve"> To receive an honorable discharge , a service member must have received a rating from good to excellent for his or her service . Service members who meet or exceed the required standards of duty performance and personal conduct , and who complete their tours of duty , normally receive honorable discharges . However , one need not complete a term of service to receive an honorable discharge , provided the reason for involuntary discharge is not due to misconduct . For instance , service members rendered physically or psychologically incapable of performing assigned duties normally have their service characterized as honorable , regardless of whether they incurred the condition or disability in the line of duty , provided they otherwise met or exceeded standards . Similarly , service members selected for involuntary discharge due to a Reduction in Force ( RIF ) typically receive an honorable discharge , assuming their conduct while on active duty met or exceeded standards . </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Southern California touches the Pacific Coast of North America.</t>
+          <t xml:space="preserve"> An Honorable Discharge from the U.S. Marine Corps is a type of military discharge that is given to service members who have completed their enlistment period, or who are separated due to a reduction in the size of the Marine Corps, and have an otherwise unblemished record. This means they have no negative marks on their service record and have met all the obligations of their enlistment contract.
+An Honorable Discharge is the highest level of discharge that can be awarded, signifying that the Marine has served with honor, courage, and commitment to the principles and values of the Corps. It is considered a positive mark on one's record and generally does not have any negative impact on future employment or educational opportunities.
+In addition to an Honorable Discharge, there are other types of discharges from the Marine Corps, including General Under Honorable Conditions (GUD) and Bad Conduct Discharge, which indicate a less than honorable service record due to misconduct, disciplinary problems, or failure to meet service obligations.</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>9</v>
+        <v>168</v>
       </c>
       <c r="F34" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="H34" t="n">
-        <v>3.035725355148315</v>
+        <v>30.15728735923767</v>
       </c>
       <c r="I34" t="n">
-        <v>9.464</v>
+        <v>14.86923076923077</v>
       </c>
       <c r="J34" t="n">
-        <v>49.5</v>
+        <v>96.65384615384616</v>
       </c>
     </row>
     <row r="35">
@@ -1785,41 +1859,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>What percentile of gross domestic product is construction comprised of?</t>
+          <t>when did the first us state legalize weed</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>six to nine percent</t>
+          <t xml:space="preserve"> The legal history of cannabis in the United States began with state - level prohibition in the early 20th century , with the first major federal limitations occurring in 1937 . Starting with Oregon in 1973 , individual states began to liberalize cannabis laws through decriminalization . In 1996 , California became the first state to legalize medical cannabis , sparking a trend that spread to a majority of states by 2016 . In 2012 , Colorado and Washington became the first states to legalize cannabis for recreational use . </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The percentage of a country's Gross Domestic Product (GDP) that is attributable to the construction industry can vary significantly across different countries and over time due to various factors such as economic development, infrastructure needs, government policies, and urbanization rates.
-As an assistant, I don't have real-time data or the ability to browse databases, but according to recent World Bank data for the year 2019:
-* In the United States, construction accounted for approximately 6% of GDP.
-* In China, construction contributed around 8.7%.
-* In India, construction represented about 7.5%.
-These figures can help give you a general idea of the range of contributions made by the construction industry to a country's overall economic output. However, it's essential to check more up-to-date and specific data for each case, as these percentages may have changed since 2019.</t>
+          <t xml:space="preserve"> The first U.S. state to legalize marijuana for recreational use was Colorado, on January 1, 2014. Washington State followed closely behind, also legalizing it on the same day. These two states had already legalized marijuana for medical purposes prior to this, in 2009 and 2011 respectively. Since then, several other states have also legalized recreational marijuana, including California, Oregon, Alaska, Massachusetts, Nevada, Maine, Michigan, Vermont, Illinois, Arizona, Montana, and New Jersey, with more considering it.</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G35" t="n">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="H35" t="n">
-        <v>23.34558129310608</v>
+        <v>17.09483480453491</v>
       </c>
       <c r="I35" t="n">
-        <v>13.7965238095238</v>
+        <v>14.87635714285714</v>
       </c>
       <c r="J35" t="n">
-        <v>93.28571428571429</v>
+        <v>97.42857142857143</v>
       </c>
     </row>
     <row r="36">
@@ -1828,36 +1897,39 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Where according to gross state product does Victoria rank in Australia?</t>
+          <t>where did the settlers of new hampshire come from</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>second</t>
+          <t xml:space="preserve"> Massachusetts was first colonized by principally English Europeans in the early 17th century , and became the Commonwealth of Massachusetts in the 18th century . Prior to English colonization of the area , it was inhabited by a variety of mainly Algonquian language indigenous tribes . The first permanent English settlement in New England came in 1620 with the founding of Plymouth Colony by the Pilgrims who sailed on the Mayflower . It set precedents but never grew large . A large - scale Puritan migration began in 1630 with the establishment of the Massachusetts Bay Colony , and spawned the settlement of other New England colonies . Friction with the natives erupted in the high - casualty King Philip 's War in the 1670s . Puritanism was the established religion and was strictly enforced ; dissenters were exiled . The Colony clashed with Anglican opponents in England over its religious intolerance and the status of its charter . Most people were farmers . Businessmen established wide - ranging trade links , sending ships to the West Indies and Europe , and sometimes shipping goods in violation of the Navigation Acts . These political and trade issues led to the revocation of the Massachusetts charter in 1684 . </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Victoria ranks second among Australian states and territories in terms of Gross State Product (GSP). New South Wales holds the first position, followed by Victoria. Western Australia is third, Queensland fourth, and South Australia fifth. Tasmania, Northern Territory, and ACT are ranked lower. These rankings can change slightly due to fluctuations in economic activity over time.</t>
+          <t xml:space="preserve"> The settlers who came to New Hampshire were primarily English Puritans and other European groups, such as French Huguenots, Scot-Irish, and German Palatines. The first recorded English settlement in what is now New Hampshire was at Strype's Port (later known as Dover) in 1623 by John Mason, a merchant from Oldham, Lancashire, England.
+The earliest Puritan settlers arrived in the late 1620s and early 1630s, fleeing religious persecution in Massachusetts Bay Colony. They established settlements such as Exeter (1638), Hampton (1638), Portsmouth (1639), and Rye (1641). These settlers were followed by waves of English immigrants throughout the 17th and 18th centuries, including families from Devon, Dorset, Somerset, Essex, Suffolk, and other counties in England.
+Other European groups also settled in New Hampshire during this period. The French Huguenots established a settlement at Casco Bay (present-day Portland, Maine) in 1658 before being forced out by the English in 1664. Scot-Irish immigrants arrived in large numbers after the end of the American Revolution, and German Palatines settled in the Connecticut River Valley during the same period.
+The influx of settlers from England and other European countries helped shape New Hampshire's cultural, economic, and political landscape and laid the foundation for the diverse and vibrant state it is today.</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>56</v>
+        <v>206</v>
       </c>
       <c r="F36" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="H36" t="n">
-        <v>9.149769067764282</v>
+        <v>45.78538203239441</v>
       </c>
       <c r="I36" t="n">
-        <v>13.162625</v>
+        <v>14.87705</v>
       </c>
       <c r="J36" t="n">
-        <v>83.75</v>
+        <v>95.97499999999999</v>
       </c>
     </row>
     <row r="37">
@@ -1866,36 +1938,37 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sophocles demonstrated civil disobedience in a play that was called?</t>
+          <t>when does gone with the wind come on tv</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Antigone</t>
+          <t xml:space="preserve"> The film received its world television premiere on the HBO cable network on June 11 , 1976 , and played on the channel for a total of fourteen times throughout the rest of the month . It made its network television debut in November later that year : NBC paid $5 million for a one - off airing , and it was broadcast in two parts on successive evenings . It became at that time the highest - rated television program ever presented on a single network , watched by 47.5 percent of the households sampled in America , and 65 percent of television viewers , still the record for the highest rated film to ever air on television . In 1978 , CBS signed a deal worth $35 million to broadcast the film twenty times over as many years . Turner Entertainment acquired the MGM film library in 1986 , but the deal did not include the television rights to Gone with the Wind , which were still held by CBS . A deal was struck in which the rights were returned to Turner Entertainment and CBS 's broadcast rights to The Wizard of Oz were extended . It was used to launch two cable channels owned by Turner Broadcasting System : Turner Network Television ( 1988 ) and Turner Classic Movies ( 1994 ) . It debuted on videocassette in March 1985 , where it placed second in the sales charts , and has since been released on DVD and Blu - ray Disc formats . </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The play by Sophocles that is often associated with civil disobedience, albeit not directly depicting it as the term is used today, is "Antigone." In this play, Antigone defies Creon's unjust law by burying her brother Polynices, who was left unburied because he fought against Thebes. This act of defiance is seen as a form of civil disobedience, as Antigone chooses to follow her conscience and moral values rather than the law of the state, which she deems unfair and inhumane. This theme has been connected to modern concepts of civil disobedience, particularly in situations where individuals peacefully resist unjust laws or systems.</t>
+          <t xml:space="preserve"> The exact air date for "Gone With the Wind" can vary depending on the broadcasting network and region. It's not a regularly scheduled program, so it doesn't air on TV in the same way as shows with regular seasons. Instead, it's often shown during special events or holiday periods such as New Year's Day, Independence Day, or Thanksgiving.
+To find out when "Gone With the Wind" will be airing next, I recommend checking local listings on television networks like Turner Classic Movies (TCM) or ABC. You can also check their official websites or apps for schedule updates.</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F37" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>258</v>
       </c>
       <c r="H37" t="n">
-        <v>17.95100498199463</v>
+        <v>18.35454320907593</v>
       </c>
       <c r="I37" t="n">
-        <v>12.751625</v>
+        <v>14.87753333333333</v>
       </c>
       <c r="J37" t="n">
-        <v>90</v>
+        <v>96.2</v>
       </c>
     </row>
     <row r="38">
@@ -1904,42 +1977,39 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>University of Chicago scholars played a major part in what development?</t>
+          <t>the three pillars of the westphalian constitution of world politics are</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>various academic disciplines</t>
+          <t xml:space="preserve"> Westphalian sovereignty , or state sovereignty , is the principle of international law that each nation - state has exclusive sovereignty over its territory . External powers should not interfere in another country 's domestic affairs . Each state , no matter how large or small , has equal rights to sovereignty . The principle underlies the modern international system of sovereign states . The United Nations Charter states that `` nothing should authorise intervention in matters essentially within the domestic jurisdiction of any state . '' </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The University of Chicago scholars played a significant role in the development of modern economics, particularly in the field of microeconomics and behavioral economics. They were instrumental in shaping the Chicago School of Economics, which emphasizes free-market principles, rational choice theory, and the use of mathematics in economic analysis.
-Some notable University of Chicago scholars include:
-1. Milton Friedman (Nobel Laureate in Economic Sciences 1976): He was a key proponent of monetarism, arguing that controlling the money supply is essential for maintaining economic stability. He also advocated for free-market principles and minimal government intervention in the economy.
-2. George Stigler (Nobel Laureate in Economic Sciences 1982): Known as a founder of the Chicago School of economics, he made significant contributions to microeconomics, public choice theory, and the study of industrial organization.
-3. Gary Becker (Nobel Laureate in Economic Sciences 1992): A pioneer in the field of human capital and labor economics, he applied economic analysis to various social issues, including crime, discrimination, and family structure.
-4. Theodore Schultz (Nobel Laureate in Economic Sciences 1979) and Thomas Schelling (Nobel Laureate in Economic Sciences 2005): Both made important contributions to the development of behavioral economics, focusing on how individuals make decisions under uncertainty and the effects of these decisions on economic outcomes.
-In addition to their impact on modern economics, University of Chicago scholars have also influenced other disciplines, such as political science, sociology, and philosophy, through interdisciplinary research and collaboration.</t>
+          <t>1. Recognition of Sovereign Equality: This principle states that all sovereign states, regardless of their size, power, or internal structure, are considered equal in the international community.
+2. Non-Intervention: This principle asserts that one state should not interfere in the domestic affairs of another state unless expressly permitted by international law or the consent of the affected state has been granted.
+3. Peaceful Settlement of Disputes: This principle encourages states to resolve their disagreements and conflicts through peaceful means, rather than resorting to force or war. It promotes diplomacy, negotiation, mediation, arbitration, and other forms of dispute resolution to maintain international peace and stability.
+These principles are often associated with the Peace of Westphalia, a series of treaties signed in 1648 that ended the Thirty Years' War in Europe. The Westphalian system is considered the foundation of modern international relations, where states act as the primary actors in global politics.</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>239</v>
+        <v>150</v>
       </c>
       <c r="F38" t="n">
         <v>11</v>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="H38" t="n">
-        <v>42.32785630226135</v>
+        <v>29.74832034111023</v>
       </c>
       <c r="I38" t="n">
-        <v>12.86042105263158</v>
+        <v>14.87236</v>
       </c>
       <c r="J38" t="n">
-        <v>94.15789473684211</v>
+        <v>94.88</v>
       </c>
     </row>
     <row r="39">
@@ -1948,36 +2018,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>The word imperialism has it's origins in which ancient language?</t>
+          <t>what type of genetic mutation is huntington's disease</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Latin</t>
+          <t xml:space="preserve"> HD is typically inherited from a person 's parents , although up to 10 % of cases are due to a new mutation . The disease is caused by an autosomal dominant mutation in either of an individual 's two copies of a gene called Huntingtin . This means a child of an affected person typically has a 50 % chance of inheriting the disease . The Huntingtin gene provides the genetic information for a protein that is also called `` huntingtin '' . Expansion of CAG ( cytosine - adenine - guanine ) triplet repeats in the gene coding for the Huntingtin protein results in an abnormal protein , which gradually damages cells in the brain , through mechanisms that are not fully understood . Diagnosis is by genetic testing , which can be carried out at any time , regardless of whether or not symptoms are present . This fact raises several ethical debates : the age at which an individual is considered mature enough to choose testing ; whether parents have the right to have their children tested ; and managing confidentiality and disclosure of test results . </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The term "imperialism" originates from the Latin word "imperium," which means authority, power, or rule. It was used during the Roman Republic and later as the foundation for the political structure of the Roman Empire. In modern usage, imperialism refers to a policy in which a stronger country extends its rule by colonizing, controlling, and exploiting weaker countries for economic gain, resources, influence, or strategic military advantage.</t>
+          <t xml:space="preserve"> Huntington's disease (HD) is caused by an expansion of a trinucleotide repeat in the IT15 gene on chromosome 4. This genetic mutation is called a trinucleotide repeat expansion or triplet repeat expansion. Normally, this region has between 6-35 repeats, but in HD patients, there are more than 40 repeats. The expanded region of the IT15 gene leads to the production of an abnormal huntingtin protein that accumulates in neurons and causes their degeneration, leading to the symptoms of Huntington's disease.</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F39" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>191</v>
       </c>
       <c r="H39" t="n">
-        <v>10.91600608825684</v>
+        <v>18.23426818847656</v>
       </c>
       <c r="I39" t="n">
-        <v>12.968</v>
+        <v>14.87433333333333</v>
       </c>
       <c r="J39" t="n">
-        <v>84.33333333333333</v>
+        <v>94.73333333333333</v>
       </c>
     </row>
     <row r="40">
@@ -1986,36 +2056,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>What UN organizations established the IPCC?</t>
+          <t>who does the universal declaration of human rights apply to</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>the World Meteorological Organization (WMO) and the United Nations Environment Programme (UNEP)</t>
+          <t xml:space="preserve"> During World War II , the Allies adopted the Four Freedoms -- freedom of speech , freedom of religion , freedom from fear , and freedom from want -- as their basic war aims . The United Nations Charter `` reaffirmed faith in fundamental human rights , and dignity and worth of the human person '' and committed all member states to promote `` universal respect for , and observance of , human rights and fundamental freedoms for all without distinction as to race , sex , language , or religion '' . </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Intergovernmental Panel on Climate Change (IPCC) was jointly established by two United Nations organizations, the United Nations Environment Programme (UNEP) and the World Meteorological Organization (WMO), in 1988. This joint committee aims to provide policymakers with objective scientific information about climate change, its implications, and potential future risks and responses. The IPCC assesses the science related to climate change, identifies uncertainties, and promotes open dialogue between governments and experts on actions to address these challenges.</t>
+          <t xml:space="preserve"> The Universal Declaration of Human Rights (UDHR) applies to all individuals, regardless of nationality, sex, ethnicity, language, religion or any other status. It was adopted by the United Nations General Assembly on December 10, 1948, as a common standard of achievements for all peoples and all nations. The UDHR consists of 30 articles that outline fundamental human rights, including the right to life, liberty, and personal security freedom from slavery and torture the right to equality before the law freedom of thought, conscience and religion the right to own property, to assemble peaceably, and to marry and raise a family the right to education, among others. The UDHR is considered a milestone in the history of human rights and serves as a foundation for international human rights instruments, national constitutions, and other domestic laws around the world.</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="F40" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="H40" t="n">
-        <v>13.64352107048035</v>
+        <v>25.08192133903503</v>
       </c>
       <c r="I40" t="n">
-        <v>12.61433333333333</v>
+        <v>14.86628571428571</v>
       </c>
       <c r="J40" t="n">
-        <v>89.16666666666667</v>
+        <v>95.61904761904762</v>
       </c>
     </row>
     <row r="41">
@@ -2024,36 +2094,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Which gas makes up 20.8% of the Earth's atmosphere?</t>
+          <t>who plays jack donaghy in the avery jessup movie</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Diatomic oxygen</t>
+          <t xml:space="preserve"> Avery 's mother Diana ( Mary Steenburgen ) arrives to make sure that the TV movie about her daughter shows her in a good light . Liz ( Tina Fey ) promises to help Jack ( Alec Baldwin ) overcome his chemistry with Diana and keep him out of an inappropriate relationship . Liz eventually fixes Diana up with the actor playing Jack ( William Baldwin , Alec Baldwin 's real life brother ) to keep her away from Jack . At the table reading of Liz 's script , Jack is appalled that Liz has included some seedy details about Jack and Avery 's courtship . He fires Liz from the project and rewrites the script himself . Jack eventually realizes that Liz is right that he had been idealizing his relationship with Avery . Liz consoles him and helps him rewrite the script to be a total fabrication . </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The gas that makes up approximately 20.8% of the Earth's atmosphere is Oxygen (O2). It plays a crucial role in supporting life on our planet, as it is used by most organisms for respiration. The remaining percentage is mainly composed of Nitrogen (N2), which constitutes about 78% of the atmosphere. The rest is made up of trace gases like Argon (Ar), Carbon Dioxide (CO2), and others.</t>
+          <t xml:space="preserve"> The Avery Jessup character does not appear to be related to Jack Donaghy, a character from the TV show "30 Rock" played by Alec Baldwin. Avery Jessup is a fictional character from the TV show "The Newsroom," created by Aaron Sorkin and played by Alison Pill. It seems there might be some confusion between these two different shows and characters.</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F41" t="n">
         <v>9</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="H41" t="n">
-        <v>12.42090344429016</v>
+        <v>11.90330982208252</v>
       </c>
       <c r="I41" t="n">
-        <v>12.517</v>
+        <v>14.87088888888889</v>
       </c>
       <c r="J41" t="n">
-        <v>88.18181818181819</v>
+        <v>95.66666666666667</v>
       </c>
     </row>
     <row r="42">
@@ -2062,36 +2132,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>What is the Yuan dynasty's official name?</t>
+          <t>supreme court justices are appointed for a term of a. life. b. 2 years. c. 14 years. d. 6 years</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>the Great Yuan</t>
+          <t xml:space="preserve"> The Supreme Court of the United States is the highest ranking judicial body in the United States . Its membership , as set by the Judiciary Act of 1869 , consists of the Chief Justice of the United States and eight associate justices , any six of whom would constitute a quorum . Justices are nominated by the President of the United States and appointed after confirmation by the United States Senate . Justices of the Supreme Court have life tenure and receive a salary which is set at $255,500 per year for the chief justice and at $244,400 per year for each associate justice as of 2014 . </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Yuan Dynasty, which ruled China from 1271 to 1368, was officially known as the Great Yuan (大元). It was established by Genghis Khan and his successors after they conquered much of Asia and united several nomadic tribes. The Mongol Empire at its height stretched from China in the east to Europe in the west. The Yuan Dynasty is also known for the Pax Mongolica, a period of relative peace and stability across much of Eurasia due to the rule of the Mongols.</t>
+          <t xml:space="preserve"> A. Life</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="H42" t="n">
-        <v>14.15650987625122</v>
+        <v>302.8916084766388</v>
       </c>
       <c r="I42" t="n">
-        <v>12.92625</v>
+        <v>7.404</v>
       </c>
       <c r="J42" t="n">
-        <v>86</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -2100,36 +2170,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>What are the agents detected by the immune system called?</t>
+          <t>what did audrey hepburn won a tony for</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>pathogens</t>
+          <t xml:space="preserve"> Audrey Hepburn received numerous awards and honors during her career . Hepburn won , or was nominated for , awards for her work in motion pictures , television , spoken - word recording , on stage , and humanitarian work . She was five - times nominated for an Academy Award , and was awarded the 1954 Academy Award for Best Actress for her performance in Roman Holiday and the Jean Hersholt Humanitarian Award in 1993 , post-humously , for her humanitarian work . She won a record three BAFTA Awards for Best British Actress in a Leading Role , from five nominations , and received a Lifetime Achievement Award in 1992 . Hepburn received 10 Golden Globe Award nominations , winning two , and was the recipient of the Cecil B. DeMille Award in 1990 . She also won the 1954 Tony Award for Best Performance by a Leading Actress in a Play in Ondine , and received a Special Tony Award in 1968 . </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The cells that are recognized and targeted by the immune system are called antigens. However, you asked for "the agents" detected, not "the agents" targeted. Antigens, in this context, are substances on a cell or virus that trigger an immune response. But if you meant to ask about the immune cells themselves, they are often referred to as leukocytes (white blood cells), although there are several types such as T-cells, B-cells, macrophages, neutrophils, and more.</t>
+          <t xml:space="preserve"> Audrey Hepburn won a Tony Award for her performance in the Broadway musical "Ondine" in 1954. She was awarded the Tony Award for Best Featured Actress in a Play, marking her only appearance on the Great White Way. Her performance as the ethereal water-spirit Ondine received critical acclaim and was considered one of her best stage roles. Hepburn's career later shifted to film, where she would become one of Hollywood's most beloved actresses, earning an Academy Award for her role in "Roman Holiday" (1953).</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F43" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="H43" t="n">
-        <v>13.36407160758972</v>
+        <v>29.77748703956604</v>
       </c>
       <c r="I43" t="n">
-        <v>13.37641666666667</v>
+        <v>13.01615</v>
       </c>
       <c r="J43" t="n">
-        <v>89.33333333333333</v>
+        <v>70.8</v>
       </c>
     </row>
     <row r="44">
@@ -2138,44 +2208,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>What is European Union Law?</t>
+          <t>where does the saying spotty muldoon come from</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>a body of treaties and legislation, such as Regulations and Directives, which have direct effect or indirect effect on the laws of European Union member states</t>
+          <t xml:space="preserve"> Spotty Muldoon , a fictional character created by Peter Cook , and featured in his 1965 song The Ballad of Spotty Muldoon </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> European Union (EU) law, also known as Union law or Community law, refers to the body of laws that bind member states of the European Union. These laws are derived from several sources and include:
-1. Treaties: The founding treaties of the EU, such as the Treaty on the Functioning of the European Union (TFEU) and the Treaty on European Union (TEU), establish the structure and objectives of the EU.
-2. Regulations: These are binding legislative acts that are directly applicable in all member states without needing to be implemented by national legislation.
-3. Directives: Directives are legal acts that require member states to achieve a particular goal within a specified timeframe, but they leave it up to each country to choose the means of implementation.
-4. Decisions: These are legally binding for the addressee(s) and have immediate effect in those countries or entities concerned.
-5. Case law: The interpretations and judgments made by the Court of Justice of the European Union (CJEU).
-6. Charter of Fundamental Rights: This is a key document that sets out the fundamental rights and freedoms to which everyone in the EU is entitled, such as human dignity, freedom, equality, and solidarity.
-7. Other acts: These may include recommendations, opinions, and communications issued by various EU institutions like the European Commission and the Council of the European Union.
-These laws are designed to promote harmonious relations among member states, protect their citizens' rights, and establish a single market for goods and services across the EU. The Court of Justice of the European Union (CJEU) plays a crucial role in interpreting and enforcing EU law.</t>
+          <t xml:space="preserve"> The phrase "Spotty Muldoon" comes from a humorous song titled "The Wild Rover" by Irish folk singer Liam Clancy. In the song, there's a verse about a man named Spotty Muldoon who travels to Australia looking for work but ends up in prison. The exact origins of the name and character in the song are not well-documented, as they seem to be fictional creations of the songwriter. The phrase has since been used humorously in various contexts, often referring to someone with a rough or unrefined demeanor.</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>269</v>
+        <v>87</v>
       </c>
       <c r="F44" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G44" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H44" t="n">
-        <v>41.65471363067627</v>
+        <v>16.83536767959595</v>
       </c>
       <c r="I44" t="n">
-        <v>13.03356756756757</v>
+        <v>14.85107142857143</v>
       </c>
       <c r="J44" t="n">
-        <v>92.81081081081081</v>
+        <v>90.35714285714286</v>
       </c>
     </row>
     <row r="45">
@@ -2184,39 +2246,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>What concept did philosophers in antiquity use to study simple machines?</t>
+          <t>when did the word robotics first appear in print</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>the concept of force</t>
+          <t xml:space="preserve"> According to the Oxford English Dictionary , the word robotics was first used in print by Isaac Asimov , in his science fiction short story `` Liar ! '' , published in May 1941 in Astounding Science Fiction . Asimov was unaware that he was coining the term ; since the science and technology of electrical devices is electronics , he assumed robotics already referred to the science and technology of robots . In some of Asimov 's other works , he states that the first use of the word robotics was in his short story Runaround ( Astounding Science Fiction , March 1942 ) . However , the original publication of `` Liar ! '' predates that of `` Runaround '' by ten months , so the former is generally cited as the word 's origin . </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> In ancient Greece, the philosophers primarily studied and discussed what we now know as mechanics using the concept of "mechanical philosophy" or "physics." This was a part of natural philosophy, which encompassed the study of all aspects of nature. They were particularly interested in understanding motion and the principles governing simple machines such as levers, pulleys, wedges, screws, and wheels and axles – what we now call machines.
-The prominent philosophers who contributed to this field include Aristotle, Archimedes, Hero of Alexandria, and others from the Hellenistic period. They formulated principles that would later become fundamental in classical mechanics such as the laws of motion.
-Aristotle, for example, discussed simple machines in his book "Mechanical Problems," where he explained various mechanical devices and their uses. Archimedes made significant contributions to the study of levers with his famous principle stating that a lever's effectiveness is dependent on the ratio between its lengths and the weights at each end. Hero of Alexandria, meanwhile, developed several mechanical devices, including the first steam engine, known as the Aeolipile.
-So, in short, philosophers in antiquity used "mechanical philosophy" or "physics" to study simple machines.</t>
+          <t xml:space="preserve"> The term "robot" was first used in a play called "R.U.R." (Rossum's Universal Robots) written by Czech writer Karel Čapek and his brother Josef Čapek in 1920. However, the English word "robotics" is believed to have been first coined by Isaac Asimov in 1941 in his short story "Robot Called Hobby." It appeared as a title in his book "I, Robot," published in 1950.</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>189</v>
+        <v>64</v>
       </c>
       <c r="F45" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G45" t="n">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="H45" t="n">
-        <v>31.48053765296936</v>
+        <v>15.93821215629578</v>
       </c>
       <c r="I45" t="n">
-        <v>12.90675</v>
+        <v>14.88361538461538</v>
       </c>
       <c r="J45" t="n">
-        <v>91.78571428571429</v>
+        <v>95.76923076923077</v>
       </c>
     </row>
     <row r="46">
@@ -2225,41 +2284,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>What right do private schools have that public schools don't?</t>
+          <t>when did loyola last win the ncaa championship</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>to select their students</t>
+          <t xml:space="preserve"> In 1963 , Loyola won the 1963 NCAA Men 's Division I Basketball Tournament ( then the `` NCAA University Division '' ) men 's basketball national championship under the leadership of All - American Jerry Harkness , defeating two - time defending champion Cincinnati 60 -- 58 in overtime in the title game . All five starters for the Ramblers played the entire championship game without substitution . </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1. Autonomy and Flexibility: Private schools have more autonomy in terms of governance, curriculum, and operational decisions compared to public schools. They can make decisions without being bound by the same regulations that public schools must follow. This allows for a more customized approach to education.
-2. Tuition Fees: Private schools can charge tuition fees, which helps them fund their programs and infrastructure. Public schools are funded primarily by taxpayer dollars.
-3. Admission Policies: Private schools can select students based on academic performance, aptitude tests, or other criteria, while public schools must accept all students within their district. Some private schools may have policies to provide scholarships or financial aid for families who might not be able to afford tuition.
-4. Focus on Specific Academic or Cultural Emphases: Private schools can focus on specific academic areas such as arts, sciences, or foreign languages, or they can emphasize a particular cultural, religious, or philosophical orientation. Public schools must offer a broad and balanced curriculum based on state education standards.
-5. Smaller Class Sizes: Due to their funding models, private schools often have smaller class sizes than public schools, which can provide more individual attention for students.
-6. Extra-Curricular Activities: Private schools may have more resources for extra-curricular activities, clubs, and sports programs. They may also be able to offer unique opportunities like internships, study abroad programs, or special interest classes not available in public schools.</t>
+          <t xml:space="preserve"> Loyola University Chicago last won the NCAA Men's Division I Basketball Championship in 1963. The team, known as the Ramblers, defeated Cincinnati 60-58 in a thrilling final game held on March 20, 1963, at the Boston Garden. This victory marked their first and only NCAA title to this day.</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>234</v>
+        <v>49</v>
       </c>
       <c r="F46" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G46" t="n">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="H46" t="n">
-        <v>36.3899040222168</v>
+        <v>12.03748416900635</v>
       </c>
       <c r="I46" t="n">
-        <v>13.0429375</v>
+        <v>14.87977777777778</v>
       </c>
       <c r="J46" t="n">
-        <v>93.0625</v>
+        <v>95.22222222222223</v>
       </c>
     </row>
     <row r="47">
@@ -2268,36 +2322,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>What is the largest stadium in Australia?</t>
+          <t>who played the baby in i love lucy</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Melbourne Cricket Ground</t>
+          <t xml:space="preserve"> Enrique Alberto Ricardo IV , `` Little Ricky , '' is a fictional character from the American television series I Love Lucy ( 1951 -- 57 , with Ricky Jr. becoming a part of the show as of his birth in 1953 ) and The Lucy - Desi Comedy Hour ( 1957 -- 60 ) . Little Ricky was played by a number of actors , including James John Ganzer , twins Richard and Ronald Lee Simmons , twins Michael and Joseph Mayer and , most notably , Keith Thibodeaux , billed as Little Ricky . Although the I Love Lucy announcer and the opening credits of The Lucy - Desi Comedy Hour gave his stage name as `` Little Ricky '' , in his post-Lucy acting career , particularly his four - year irregular stint on The Andy Griffith Show , he was billed as Richard Keith . </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The largest stadium in Australia is the Melbourne Cricket Ground (MCG), located in Melbourne, Victoria. It has a capacity of approximately 100,024 spectators, making it one of the largest sports venues in the world by capacity. The MCG hosts various sporting events, such as Australian Rules Football and cricket matches, concerts, and other cultural events. It's an iconic landmark in Australia and has a rich history dating back to 1853.</t>
+          <t xml:space="preserve"> The character "Baby Ricky" on I Love Lucy was not actually a baby, but a boy portraying Ricky Ricardo's son. The actor who played Baby Ricky was a series of twins: Richie and Little Ricky (real name: Richard Keith Sellers). They first appeared in the iconic "Lucy Goes to the Hospital" episode where Lucy goes into labor prematurely. After that, they became regular cast members from 1953 to 1957.</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F47" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="H47" t="n">
-        <v>12.37465071678162</v>
+        <v>15.01640820503235</v>
       </c>
       <c r="I47" t="n">
-        <v>12.53854545454545</v>
+        <v>14.892</v>
       </c>
       <c r="J47" t="n">
-        <v>84.45454545454545</v>
+        <v>94.66666666666667</v>
       </c>
     </row>
     <row r="48">
@@ -2306,36 +2360,37 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Where do ctenophora live?</t>
+          <t>where does publisher clearing house money come from</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>marine waters</t>
+          <t xml:space="preserve"> Publishers Clearing House ( PCH ) is a direct marketing company that markets merchandise and magazine subscriptions with sweepstakes , and prize - based games . </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ctenophores, also known as Comb Jellies, are marine invertebrates that inhabit the world's oceans. They are most commonly found in coastal areas and open seas worldwide, although they seem to be more abundant in temperate and tropical regions compared to polar ones. Some species of ctenophores can also live in freshwater bodies like lakes and ponds, but these freshwater ctenophores have adapted differently from their marine counterparts.</t>
+          <t xml:space="preserve"> Publisher Clearing House (PCH) is a direct marketing company that primarily operates sweepstakes and prize promotions. The money for these prizes comes from the sale of their products, which include magazines, books, and other items they offer to their customers as part of their subscription packages or promotional offers.
+Additionally, PCH raises funds through advertising revenue from its various media platforms, sponsorships, partnerships, and donations. A portion of these earnings goes towards the prizes awarded in their sweepstakes. It's important to note that participating in PCH's sweepstakes is free, and anyone can enter without purchasing any products or services.</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="F48" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="H48" t="n">
-        <v>12.37124013900757</v>
+        <v>19.16290092468262</v>
       </c>
       <c r="I48" t="n">
-        <v>12.53936363636363</v>
+        <v>14.8746875</v>
       </c>
       <c r="J48" t="n">
-        <v>86.18181818181819</v>
+        <v>94.75</v>
       </c>
     </row>
     <row r="49">
@@ -2344,36 +2399,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>In what country can most of the Amazon rainforest be found?</t>
+          <t>who did the patriots play last year for super bowl</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t xml:space="preserve"> Super Bowl LI was an American football game played at NRG Stadium in Houston , Texas , on February 5 , 2017 , to determine the champion of the National Football League ( NFL ) for the 2016 season . The American Football Conference ( AFC ) champion New England Patriots , after trailing by as many as 25 points ( 28 -- 3 ) during the third quarter , defeated the National Football Conference ( NFC ) champion Atlanta Falcons , 34 -- 28 in overtime . The Patriots ' 25 - point comeback is the largest comeback in Super Bowl history , and Super Bowl LI was the first to be decided in overtime . </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The largest part of the Amazon Rainforest is located in South America, specifically within Brazil. Approximately 60% of the forest lies within this country's borders, making it the custodian of more than half of the world's largest tropical rainforest. Other countries that share portions of the Amazon include Peru, Colombia, Bolivia, Ecuador, Venezuela, Guyana, Suriname, and French Guiana (an overseas department of France).</t>
+          <t xml:space="preserve"> The New England Patriots played the Los Angeles Rams in the Super Bowl LIII, which took place on February 3, 2019. The game was held at Mercedes-Benz Stadium in Atlanta, Georgia. The Patriots won the Super Bowl with a score of 13-3, making it their sixth NFL championship and Tom Brady's record-tying third MVP award.</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F49" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="H49" t="n">
-        <v>11.78608965873718</v>
+        <v>12.04780030250549</v>
       </c>
       <c r="I49" t="n">
-        <v>12.7401</v>
+        <v>14.87122222222222</v>
       </c>
       <c r="J49" t="n">
-        <v>87</v>
+        <v>94.77777777777777</v>
       </c>
     </row>
     <row r="50">
@@ -2382,39 +2437,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>What are the two bodies that make up the European Union's legislature?</t>
+          <t>who sings the song don't you forget about me in the commercial</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>European Parliament and the Council of the European Union</t>
+          <t xml:space="preserve"> `` Do n't You ( Forget About Me ) '' is a 1985 pop song performed by Scottish rock band Simple Minds . The song is best known for being played during the opening and closing credits of the John Hughes film The Breakfast Club . It was written and composed by producer Keith Forsey and Steve Schiff , a guitarist and songwriter from the Nina Hagen band . </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The European Union (EU) has a bicameral legislative system, which is composed of two distinct yet cooperative institutions:
-1. The European Parliament (EP): It is the directly elected body of the EU and represents the voice of the citizens. Composed of 705 members (MEPs), it is responsible for passing legislation in areas under the shared competence of the EU, approving the EU budget, and overseeing the executive branch, which includes the European Commission.
-2. The Council of the European Union (also known as the Council of Ministers or simply the Council): It represents the governments of the EU member states. The Council is made up of government ministers from each of the 27 member countries. Each country has one vote, and the President of the Council chairs the meetings. The Council plays a crucial role in the legislative process by adopting laws jointly with the European Parliament.
-Both the European Parliament and the Council are essential to the democratic structure of the EU, as they work together to ensure that the policies and decisions made reflect the interests and needs of the citizens within the Union.</t>
+          <t xml:space="preserve"> The song "Don't You (Forget About Me)" from the film "The Breakfast Club" is not sung by an artist in a specific commercial. However, it has been used in various advertisements over the years, creating a cultural association between the song and the brand that uses it. One of the most notable uses was in the 1985 Levis 501 advertising campaign. In this ad, the song was not sung by an artist but spoken by a character as part of the narrative.</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="F50" t="n">
         <v>12</v>
       </c>
       <c r="G50" t="n">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="H50" t="n">
-        <v>27.43624114990234</v>
+        <v>14.91539478302002</v>
       </c>
       <c r="I50" t="n">
-        <v>13.038375</v>
+        <v>14.88541666666667</v>
       </c>
       <c r="J50" t="n">
-        <v>91.66666666666667</v>
+        <v>96.83333333333333</v>
       </c>
     </row>
     <row r="51">
@@ -2423,36 +2475,39 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>The Scottish Parliament may legislate as it pleases as long as the powers aren't already reserved by where?</t>
+          <t>ukraine starts liquidation of legendary aircraft manufacturer antonov</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Westminster</t>
+          <t xml:space="preserve"> On 19 July 2017 , the Ukrainian government approved the liquidation of Antonov 's assets , starting with closing down three factories in Kiev and Kharkiv . The State Concern `` Antonov '' ( a business group , created in 2005 from the merger of several legally independent companies into a single economic entity under unified management ) will be liquidated as a residual corporate entity . Antonov State Company , Kharkiv State Aviation Manufacturing Enterprise and Plant No 410 of Civil Aviation were transferred under the management of another state - owned concern Ukroboronprom in 2015 . Antonov State Company continues to function as an enterprise . </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The powers of the Scottish Parliament, as defined in the Scotland Acts, are devolved from the UK Parliament at Westminster. This means that the Scottish Parliament can legislate as it pleases within the areas for which it has been given competence, so long as these powers aren't already reserved by Westminster (reserved matters). These include areas such as foreign affairs and defense, which are considered to be of exclusive UK-wide concern.</t>
+          <t xml:space="preserve"> It appears that you are referring to the potential liquidation of Antonov, a Ukrainian state-owned aerospace manufacturing company known for producing some of the world's largest planes, such as the An-225 Mriya.
+According to reports, Antonov faced financial difficulties and struggled to find customers for its new products in recent years. In late 2021, the Ukrainian government announced a plan to restructure Antonov by either selling or liquidating parts of the company. This decision was made due to the significant financial losses that Antonov has been experiencing and the need to reduce the burden on Ukraine's state budget.
+The news about the potential liquidation of Antonov has raised concerns among Ukrainian politicians, experts, and employees, as it could lead to job losses and further damage to Ukraine's aerospace industry. However, some argue that this move is necessary to ensure the survival of the company and preserve its legacy in the aviation sector.
+As of now, the liquidation process has not been finalized, and there are ongoing discussions about potential solutions to save Antonov. The Ukrainian government is exploring various options, including finding strategic partners or investors who could help revitalize the company and secure its future. Stay tuned for more updates on this developing story.</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>71</v>
+        <v>205</v>
       </c>
       <c r="F51" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="H51" t="n">
-        <v>11.36897993087769</v>
+        <v>36.61662006378174</v>
       </c>
       <c r="I51" t="n">
-        <v>12.4714</v>
+        <v>14.87346875</v>
       </c>
       <c r="J51" t="n">
-        <v>85.2</v>
+        <v>95.03125</v>
       </c>
     </row>
   </sheetData>
